--- a/input/team2.xlsx
+++ b/input/team2.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu Kumar\Documents\IPL\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432B6B1C-B4B4-457F-ADD1-7CC19C100B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,1978 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="655">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>A Ashish Reddy</t>
+  </si>
+  <si>
+    <t>A Badoni</t>
+  </si>
+  <si>
+    <t>A Chandila</t>
+  </si>
+  <si>
+    <t>A Chopra</t>
+  </si>
+  <si>
+    <t>A Choudhary</t>
+  </si>
+  <si>
+    <t>A Dananjaya</t>
+  </si>
+  <si>
+    <t>A Flintoff</t>
+  </si>
+  <si>
+    <t>A Kumble</t>
+  </si>
+  <si>
+    <t>A Manohar</t>
+  </si>
+  <si>
+    <t>A Mishra</t>
+  </si>
+  <si>
+    <t>A Mithun</t>
+  </si>
+  <si>
+    <t>A Mukund</t>
+  </si>
+  <si>
+    <t>A Nehra</t>
+  </si>
+  <si>
+    <t>A Nel</t>
+  </si>
+  <si>
+    <t>A Nortje</t>
+  </si>
+  <si>
+    <t>A Singh</t>
+  </si>
+  <si>
+    <t>A Symonds</t>
+  </si>
+  <si>
+    <t>A Tomar</t>
+  </si>
+  <si>
+    <t>A Uniyal</t>
+  </si>
+  <si>
+    <t>A Zampa</t>
+  </si>
+  <si>
+    <t>AA Bilakhia</t>
+  </si>
+  <si>
+    <t>AA Chavan</t>
+  </si>
+  <si>
+    <t>AA Jhunjhunwala</t>
+  </si>
+  <si>
+    <t>AA Kazi</t>
+  </si>
+  <si>
+    <t>AA Noffke</t>
+  </si>
+  <si>
+    <t>AB Agarkar</t>
+  </si>
+  <si>
+    <t>AB Barath</t>
+  </si>
+  <si>
+    <t>AB de Villiers</t>
+  </si>
+  <si>
+    <t>AB Dinda</t>
+  </si>
+  <si>
+    <t>AB McDonald</t>
+  </si>
+  <si>
+    <t>Abdul Samad</t>
+  </si>
+  <si>
+    <t>Abdur Razzak</t>
+  </si>
+  <si>
+    <t>Abhishek Sharma</t>
+  </si>
+  <si>
+    <t>AC Blizzard</t>
+  </si>
+  <si>
+    <t>AC Gilchrist</t>
+  </si>
+  <si>
+    <t>AC Thomas</t>
+  </si>
+  <si>
+    <t>AC Voges</t>
+  </si>
+  <si>
+    <t>AD Hales</t>
+  </si>
+  <si>
+    <t>AD Mascarenhas</t>
+  </si>
+  <si>
+    <t>AD Mathews</t>
+  </si>
+  <si>
+    <t>AD Nath</t>
+  </si>
+  <si>
+    <t>AD Russell</t>
+  </si>
+  <si>
+    <t>AF Milne</t>
+  </si>
+  <si>
+    <t>AG Murtaza</t>
+  </si>
+  <si>
+    <t>AG Paunikar</t>
+  </si>
+  <si>
+    <t>AJ Finch</t>
+  </si>
+  <si>
+    <t>AJ Turner</t>
+  </si>
+  <si>
+    <t>AJ Tye</t>
+  </si>
+  <si>
+    <t>AK Markram</t>
+  </si>
+  <si>
+    <t>Akash Deep</t>
+  </si>
+  <si>
+    <t>Akash Singh</t>
+  </si>
+  <si>
+    <t>AL Menaria</t>
+  </si>
+  <si>
+    <t>AM Nayar</t>
+  </si>
+  <si>
+    <t>AM Rahane</t>
+  </si>
+  <si>
+    <t>AM Salvi</t>
+  </si>
+  <si>
+    <t>Aman Hakim Khan</t>
+  </si>
+  <si>
+    <t>AN Ahmed</t>
+  </si>
+  <si>
+    <t>AN Ghosh</t>
+  </si>
+  <si>
+    <t>Anand Rajan</t>
+  </si>
+  <si>
+    <t>Anirudh Singh</t>
+  </si>
+  <si>
+    <t>Ankit Sharma</t>
+  </si>
+  <si>
+    <t>Ankit Soni</t>
+  </si>
+  <si>
+    <t>Anmolpreet Singh</t>
+  </si>
+  <si>
+    <t>Anuj Rawat</t>
+  </si>
+  <si>
+    <t>Anureet Singh</t>
+  </si>
+  <si>
+    <t>AP Dole</t>
+  </si>
+  <si>
+    <t>AP Majumdar</t>
+  </si>
+  <si>
+    <t>AP Tare</t>
+  </si>
+  <si>
+    <t>AR Bawne</t>
+  </si>
+  <si>
+    <t>AR Patel</t>
+  </si>
+  <si>
+    <t>Arshdeep Singh</t>
+  </si>
+  <si>
+    <t>AS Joseph</t>
+  </si>
+  <si>
+    <t>AS Rajpoot</t>
+  </si>
+  <si>
+    <t>AS Raut</t>
+  </si>
+  <si>
+    <t>AS Roy</t>
+  </si>
+  <si>
+    <t>AS Yadav</t>
+  </si>
+  <si>
+    <t>AT Carey</t>
+  </si>
+  <si>
+    <t>AT Rayudu</t>
+  </si>
+  <si>
+    <t>AU Rashid</t>
+  </si>
+  <si>
+    <t>AUK Pathan</t>
+  </si>
+  <si>
+    <t>Avesh Khan</t>
+  </si>
+  <si>
+    <t>Azhar Mahmood</t>
+  </si>
+  <si>
+    <t>B Akhil</t>
+  </si>
+  <si>
+    <t>B Chipli</t>
+  </si>
+  <si>
+    <t>B Geeves</t>
+  </si>
+  <si>
+    <t>B Indrajith</t>
+  </si>
+  <si>
+    <t>B Kumar</t>
+  </si>
+  <si>
+    <t>B Laughlin</t>
+  </si>
+  <si>
+    <t>B Lee</t>
+  </si>
+  <si>
+    <t>B Sai Sudharsan</t>
+  </si>
+  <si>
+    <t>B Stanlake</t>
+  </si>
+  <si>
+    <t>B Sumanth</t>
+  </si>
+  <si>
+    <t>BA Bhatt</t>
+  </si>
+  <si>
+    <t>BA Stokes</t>
+  </si>
+  <si>
+    <t>Basil Thampi</t>
+  </si>
+  <si>
+    <t>BAW Mendis</t>
+  </si>
+  <si>
+    <t>BB McCullum</t>
+  </si>
+  <si>
+    <t>BB Samantray</t>
+  </si>
+  <si>
+    <t>BB Sran</t>
+  </si>
+  <si>
+    <t>BCJ Cutting</t>
+  </si>
+  <si>
+    <t>BE Hendricks</t>
+  </si>
+  <si>
+    <t>Bipul Sharma</t>
+  </si>
+  <si>
+    <t>BJ Haddin</t>
+  </si>
+  <si>
+    <t>BJ Hodge</t>
+  </si>
+  <si>
+    <t>BJ Rohrer</t>
+  </si>
+  <si>
+    <t>BMAJ Mendis</t>
+  </si>
+  <si>
+    <t>BR Dunk</t>
+  </si>
+  <si>
+    <t>BW Hilfenhaus</t>
+  </si>
+  <si>
+    <t>C de Grandhomme</t>
+  </si>
+  <si>
+    <t>C Ganapathy</t>
+  </si>
+  <si>
+    <t>C Madan</t>
+  </si>
+  <si>
+    <t>C Munro</t>
+  </si>
+  <si>
+    <t>C Nanda</t>
+  </si>
+  <si>
+    <t>C Sakariya</t>
+  </si>
+  <si>
+    <t>CA Ingram</t>
+  </si>
+  <si>
+    <t>CA Lynn</t>
+  </si>
+  <si>
+    <t>CA Pujara</t>
+  </si>
+  <si>
+    <t>CH Gayle</t>
+  </si>
+  <si>
+    <t>CH Morris</t>
+  </si>
+  <si>
+    <t>CJ Anderson</t>
+  </si>
+  <si>
+    <t>CJ Dala</t>
+  </si>
+  <si>
+    <t>CJ Ferguson</t>
+  </si>
+  <si>
+    <t>CJ Green</t>
+  </si>
+  <si>
+    <t>CJ Jordan</t>
+  </si>
+  <si>
+    <t>CJ McKay</t>
+  </si>
+  <si>
+    <t>CK Kapugedera</t>
+  </si>
+  <si>
+    <t>CK Langeveldt</t>
+  </si>
+  <si>
+    <t>CL White</t>
+  </si>
+  <si>
+    <t>CM Gautam</t>
+  </si>
+  <si>
+    <t>CR Brathwaite</t>
+  </si>
+  <si>
+    <t>CR Woakes</t>
+  </si>
+  <si>
+    <t>CRD Fernando</t>
+  </si>
+  <si>
+    <t>CV Varun</t>
+  </si>
+  <si>
+    <t>D Brevis</t>
+  </si>
+  <si>
+    <t>D du Preez</t>
+  </si>
+  <si>
+    <t>D Kalyankrishna</t>
+  </si>
+  <si>
+    <t>D Padikkal</t>
+  </si>
+  <si>
+    <t>D Pretorius</t>
+  </si>
+  <si>
+    <t>D Salunkhe</t>
+  </si>
+  <si>
+    <t>D Wiese</t>
+  </si>
+  <si>
+    <t>DA Miller</t>
+  </si>
+  <si>
+    <t>DA Warner</t>
+  </si>
+  <si>
+    <t>DAJ Bracewell</t>
+  </si>
+  <si>
+    <t>DB Das</t>
+  </si>
+  <si>
+    <t>DB Ravi Teja</t>
+  </si>
+  <si>
+    <t>DE Bollinger</t>
+  </si>
+  <si>
+    <t>DG Nalkande</t>
+  </si>
+  <si>
+    <t>DH Yagnik</t>
+  </si>
+  <si>
+    <t>DJ Bravo</t>
+  </si>
+  <si>
+    <t>DJ Harris</t>
+  </si>
+  <si>
+    <t>DJ Hooda</t>
+  </si>
+  <si>
+    <t>DJ Hussey</t>
+  </si>
+  <si>
+    <t>DJ Jacobs</t>
+  </si>
+  <si>
+    <t>DJ Malan</t>
+  </si>
+  <si>
+    <t>DJ Mitchell</t>
+  </si>
+  <si>
+    <t>DJ Muthuswami</t>
+  </si>
+  <si>
+    <t>DJ Thornely</t>
+  </si>
+  <si>
+    <t>DJ Willey</t>
+  </si>
+  <si>
+    <t>DJG Sammy</t>
+  </si>
+  <si>
+    <t>DJM Short</t>
+  </si>
+  <si>
+    <t>DL Chahar</t>
+  </si>
+  <si>
+    <t>DL Vettori</t>
+  </si>
+  <si>
+    <t>DM Bravo</t>
+  </si>
+  <si>
+    <t>DNT Zoysa</t>
+  </si>
+  <si>
+    <t>DP Conway</t>
+  </si>
+  <si>
+    <t>DP Nannes</t>
+  </si>
+  <si>
+    <t>DP Vijaykumar</t>
+  </si>
+  <si>
+    <t>DPMD Jayawardene</t>
+  </si>
+  <si>
+    <t>DR Martyn</t>
+  </si>
+  <si>
+    <t>DR Sams</t>
+  </si>
+  <si>
+    <t>DR Shorey</t>
+  </si>
+  <si>
+    <t>DR Smith</t>
+  </si>
+  <si>
+    <t>DS Kulkarni</t>
+  </si>
+  <si>
+    <t>DS Lehmann</t>
+  </si>
+  <si>
+    <t>DT Christian</t>
+  </si>
+  <si>
+    <t>DT Patil</t>
+  </si>
+  <si>
+    <t>DW Steyn</t>
+  </si>
+  <si>
+    <t>E Lewis</t>
+  </si>
+  <si>
+    <t>EJG Morgan</t>
+  </si>
+  <si>
+    <t>ER Dwivedi</t>
+  </si>
+  <si>
+    <t>F Behardien</t>
+  </si>
+  <si>
+    <t>F du Plessis</t>
+  </si>
+  <si>
+    <t>FA Allen</t>
+  </si>
+  <si>
+    <t>Fazalhaq Farooqi</t>
+  </si>
+  <si>
+    <t>FH Edwards</t>
+  </si>
+  <si>
+    <t>FY Fazal</t>
+  </si>
+  <si>
+    <t>G Gambhir</t>
+  </si>
+  <si>
+    <t>Gagandeep Singh</t>
+  </si>
+  <si>
+    <t>GB Hogg</t>
+  </si>
+  <si>
+    <t>GC Smith</t>
+  </si>
+  <si>
+    <t>GC Viljoen</t>
+  </si>
+  <si>
+    <t>GD McGrath</t>
+  </si>
+  <si>
+    <t>GD Phillips</t>
+  </si>
+  <si>
+    <t>GH Vihari</t>
+  </si>
+  <si>
+    <t>GHS Garton</t>
+  </si>
+  <si>
+    <t>GJ Bailey</t>
+  </si>
+  <si>
+    <t>GJ Maxwell</t>
+  </si>
+  <si>
+    <t>GR Napier</t>
+  </si>
+  <si>
+    <t>GS Sandhu</t>
+  </si>
+  <si>
+    <t>Gurkeerat Singh</t>
+  </si>
+  <si>
+    <t>H Das</t>
+  </si>
+  <si>
+    <t>H Klaasen</t>
+  </si>
+  <si>
+    <t>Harbhajan Singh</t>
+  </si>
+  <si>
+    <t>Harmeet Singh</t>
+  </si>
+  <si>
+    <t>Harmeet Singh (2)</t>
+  </si>
+  <si>
+    <t>Harpreet Brar</t>
+  </si>
+  <si>
+    <t>Harpreet Singh</t>
+  </si>
+  <si>
+    <t>Harshit Rana</t>
+  </si>
+  <si>
+    <t>HE van der Dussen</t>
+  </si>
+  <si>
+    <t>HF Gurney</t>
+  </si>
+  <si>
+    <t>HH Gibbs</t>
+  </si>
+  <si>
+    <t>HH Pandya</t>
+  </si>
+  <si>
+    <t>HM Amla</t>
+  </si>
+  <si>
+    <t>HR Shokeen</t>
+  </si>
+  <si>
+    <t>HV Patel</t>
+  </si>
+  <si>
+    <t>I Malhotra</t>
+  </si>
+  <si>
+    <t>I Sharma</t>
+  </si>
+  <si>
+    <t>I Udana</t>
+  </si>
+  <si>
+    <t>IC Pandey</t>
+  </si>
+  <si>
+    <t>IC Porel</t>
+  </si>
+  <si>
+    <t>IK Pathan</t>
+  </si>
+  <si>
+    <t>Imran Tahir</t>
+  </si>
+  <si>
+    <t>Iqbal Abdulla</t>
+  </si>
+  <si>
+    <t>IR Jaggi</t>
+  </si>
+  <si>
+    <t>IS Sodhi</t>
+  </si>
+  <si>
+    <t>Ishan Kishan</t>
+  </si>
+  <si>
+    <t>J Arunkumar</t>
+  </si>
+  <si>
+    <t>J Botha</t>
+  </si>
+  <si>
+    <t>J Suchith</t>
+  </si>
+  <si>
+    <t>J Syed Mohammad</t>
+  </si>
+  <si>
+    <t>J Theron</t>
+  </si>
+  <si>
+    <t>J Yadav</t>
+  </si>
+  <si>
+    <t>JA Morkel</t>
+  </si>
+  <si>
+    <t>JA Richardson</t>
+  </si>
+  <si>
+    <t>Jalaj S Saxena</t>
+  </si>
+  <si>
+    <t>Jaskaran Singh</t>
+  </si>
+  <si>
+    <t>JC Archer</t>
+  </si>
+  <si>
+    <t>JC Buttler</t>
+  </si>
+  <si>
+    <t>JD Ryder</t>
+  </si>
+  <si>
+    <t>JD Unadkat</t>
+  </si>
+  <si>
+    <t>JDP Oram</t>
+  </si>
+  <si>
+    <t>JDS Neesham</t>
+  </si>
+  <si>
+    <t>JE Taylor</t>
+  </si>
+  <si>
+    <t>JEC Franklin</t>
+  </si>
+  <si>
+    <t>JH Kallis</t>
+  </si>
+  <si>
+    <t>JJ Bumrah</t>
+  </si>
+  <si>
+    <t>JJ Roy</t>
+  </si>
+  <si>
+    <t>JJ van der Wath</t>
+  </si>
+  <si>
+    <t>JL Denly</t>
+  </si>
+  <si>
+    <t>JL Pattinson</t>
+  </si>
+  <si>
+    <t>JM Bairstow</t>
+  </si>
+  <si>
+    <t>JM Kemp</t>
+  </si>
+  <si>
+    <t>JM Sharma</t>
+  </si>
+  <si>
+    <t>JO Holder</t>
+  </si>
+  <si>
+    <t>Joginder Sharma</t>
+  </si>
+  <si>
+    <t>JP Behrendorff</t>
+  </si>
+  <si>
+    <t>JP Duminy</t>
+  </si>
+  <si>
+    <t>JP Faulkner</t>
+  </si>
+  <si>
+    <t>JPR Scantlebury-Searles</t>
+  </si>
+  <si>
+    <t>JR Hazlewood</t>
+  </si>
+  <si>
+    <t>JR Hopes</t>
+  </si>
+  <si>
+    <t>JR Philippe</t>
+  </si>
+  <si>
+    <t>JW Hastings</t>
+  </si>
+  <si>
+    <t>K Goel</t>
+  </si>
+  <si>
+    <t>K Gowtham</t>
+  </si>
+  <si>
+    <t>K Kartikeya</t>
+  </si>
+  <si>
+    <t>K Khejroliya</t>
+  </si>
+  <si>
+    <t>K Rabada</t>
+  </si>
+  <si>
+    <t>K Santokie</t>
+  </si>
+  <si>
+    <t>K Upadhyay</t>
+  </si>
+  <si>
+    <t>K Yadav</t>
+  </si>
+  <si>
+    <t>KA Jamieson</t>
+  </si>
+  <si>
+    <t>KA Pollard</t>
+  </si>
+  <si>
+    <t>KAJ Roach</t>
+  </si>
+  <si>
+    <t>Kamran Akmal</t>
+  </si>
+  <si>
+    <t>Kamran Khan</t>
+  </si>
+  <si>
+    <t>Karanveer Singh</t>
+  </si>
+  <si>
+    <t>Kartik Tyagi</t>
+  </si>
+  <si>
+    <t>KB Arun Karthik</t>
+  </si>
+  <si>
+    <t>KC Cariappa</t>
+  </si>
+  <si>
+    <t>KC Sangakkara</t>
+  </si>
+  <si>
+    <t>KD Karthik</t>
+  </si>
+  <si>
+    <t>KH Pandya</t>
+  </si>
+  <si>
+    <t>KJ Abbott</t>
+  </si>
+  <si>
+    <t>KK Ahmed</t>
+  </si>
+  <si>
+    <t>KK Cooper</t>
+  </si>
+  <si>
+    <t>KK Nair</t>
+  </si>
+  <si>
+    <t>KL Nagarkoti</t>
+  </si>
+  <si>
+    <t>KL Rahul</t>
+  </si>
+  <si>
+    <t>KM Asif</t>
+  </si>
+  <si>
+    <t>KM Jadhav</t>
+  </si>
+  <si>
+    <t>KMA Paul</t>
+  </si>
+  <si>
+    <t>KMDN Kulasekara</t>
+  </si>
+  <si>
+    <t>KP Appanna</t>
+  </si>
+  <si>
+    <t>KP Pietersen</t>
+  </si>
+  <si>
+    <t>KR Sen</t>
+  </si>
+  <si>
+    <t>KS Bharat</t>
+  </si>
+  <si>
+    <t>KS Sharma</t>
+  </si>
+  <si>
+    <t>KS Williamson</t>
+  </si>
+  <si>
+    <t>Kuldeep Yadav</t>
+  </si>
+  <si>
+    <t>KV Sharma</t>
+  </si>
+  <si>
+    <t>KW Richardson</t>
+  </si>
+  <si>
+    <t>L Ablish</t>
+  </si>
+  <si>
+    <t>L Balaji</t>
+  </si>
+  <si>
+    <t>L Ngidi</t>
+  </si>
+  <si>
+    <t>L Ronchi</t>
+  </si>
+  <si>
+    <t>LA Carseldine</t>
+  </si>
+  <si>
+    <t>LA Pomersbach</t>
+  </si>
+  <si>
+    <t>Lalit Yadav</t>
+  </si>
+  <si>
+    <t>LE Plunkett</t>
+  </si>
+  <si>
+    <t>LH Ferguson</t>
+  </si>
+  <si>
+    <t>LI Meriwala</t>
+  </si>
+  <si>
+    <t>LJ Wright</t>
+  </si>
+  <si>
+    <t>LMP Simmons</t>
+  </si>
+  <si>
+    <t>LPC Silva</t>
+  </si>
+  <si>
+    <t>LR Shukla</t>
+  </si>
+  <si>
+    <t>LRPL Taylor</t>
+  </si>
+  <si>
+    <t>LS Livingstone</t>
+  </si>
+  <si>
+    <t>M Ashwin</t>
+  </si>
+  <si>
+    <t>M de Lange</t>
+  </si>
+  <si>
+    <t>M Jansen</t>
+  </si>
+  <si>
+    <t>M Kaif</t>
+  </si>
+  <si>
+    <t>M Kartik</t>
+  </si>
+  <si>
+    <t>M Klinger</t>
+  </si>
+  <si>
+    <t>M Manhas</t>
+  </si>
+  <si>
+    <t>M Markande</t>
+  </si>
+  <si>
+    <t>M Morkel</t>
+  </si>
+  <si>
+    <t>M Muralitharan</t>
+  </si>
+  <si>
+    <t>M Ntini</t>
+  </si>
+  <si>
+    <t>M Pathirana</t>
+  </si>
+  <si>
+    <t>M Prasidh Krishna</t>
+  </si>
+  <si>
+    <t>M Rawat</t>
+  </si>
+  <si>
+    <t>M Shahrukh Khan</t>
+  </si>
+  <si>
+    <t>M Theekshana</t>
+  </si>
+  <si>
+    <t>M Vijay</t>
+  </si>
+  <si>
+    <t>M Vohra</t>
+  </si>
+  <si>
+    <t>MA Agarwal</t>
+  </si>
+  <si>
+    <t>MA Khote</t>
+  </si>
+  <si>
+    <t>MA Starc</t>
+  </si>
+  <si>
+    <t>MA Wood</t>
+  </si>
+  <si>
+    <t>Mandeep Singh</t>
+  </si>
+  <si>
+    <t>Mashrafe Mortaza</t>
+  </si>
+  <si>
+    <t>MB Parmar</t>
+  </si>
+  <si>
+    <t>MC Henriques</t>
+  </si>
+  <si>
+    <t>MC Juneja</t>
+  </si>
+  <si>
+    <t>MD Mishra</t>
+  </si>
+  <si>
+    <t>MDKJ Perera</t>
+  </si>
+  <si>
+    <t>MEK Hussey</t>
+  </si>
+  <si>
+    <t>MF Maharoof</t>
+  </si>
+  <si>
+    <t>MG Johnson</t>
+  </si>
+  <si>
+    <t>MG Neser</t>
+  </si>
+  <si>
+    <t>Misbah-ul-Haq</t>
+  </si>
+  <si>
+    <t>MJ Clarke</t>
+  </si>
+  <si>
+    <t>MJ Guptill</t>
+  </si>
+  <si>
+    <t>MJ Henry</t>
+  </si>
+  <si>
+    <t>MJ Lumb</t>
+  </si>
+  <si>
+    <t>MJ McClenaghan</t>
+  </si>
+  <si>
+    <t>MJ Santner</t>
+  </si>
+  <si>
+    <t>MK Lomror</t>
+  </si>
+  <si>
+    <t>MK Pandey</t>
+  </si>
+  <si>
+    <t>MK Tiwary</t>
+  </si>
+  <si>
+    <t>ML Hayden</t>
+  </si>
+  <si>
+    <t>MM Ali</t>
+  </si>
+  <si>
+    <t>MM Patel</t>
+  </si>
+  <si>
+    <t>MM Sharma</t>
+  </si>
+  <si>
+    <t>MN Samuels</t>
+  </si>
+  <si>
+    <t>MN van Wyk</t>
+  </si>
+  <si>
+    <t>Mohammad Ashraful</t>
+  </si>
+  <si>
+    <t>Mohammad Asif</t>
+  </si>
+  <si>
+    <t>Mohammad Hafeez</t>
+  </si>
+  <si>
+    <t>Mohammad Nabi</t>
+  </si>
+  <si>
+    <t>Mohammed Shami</t>
+  </si>
+  <si>
+    <t>Mohammed Siraj</t>
+  </si>
+  <si>
+    <t>Mohsin Khan (2)</t>
+  </si>
+  <si>
+    <t>Monu Kumar</t>
+  </si>
+  <si>
+    <t>MP Stoinis</t>
+  </si>
+  <si>
+    <t>MR Marsh</t>
+  </si>
+  <si>
+    <t>MS Bisla</t>
+  </si>
+  <si>
+    <t>MS Dhoni</t>
+  </si>
+  <si>
+    <t>MS Gony</t>
+  </si>
+  <si>
+    <t>MS Wade</t>
+  </si>
+  <si>
+    <t>Mujeeb Ur Rahman</t>
+  </si>
+  <si>
+    <t>Mukesh Choudhary</t>
+  </si>
+  <si>
+    <t>Mustafizur Rahman</t>
+  </si>
+  <si>
+    <t>MV Boucher</t>
+  </si>
+  <si>
+    <t>N Jagadeesan</t>
+  </si>
+  <si>
+    <t>N Pooran</t>
+  </si>
+  <si>
+    <t>N Rana</t>
+  </si>
+  <si>
+    <t>N Saini</t>
+  </si>
+  <si>
+    <t>NA Saini</t>
+  </si>
+  <si>
+    <t>NB Singh</t>
+  </si>
+  <si>
+    <t>ND Doshi</t>
+  </si>
+  <si>
+    <t>Niraj Patel</t>
+  </si>
+  <si>
+    <t>NJ Maddinson</t>
+  </si>
+  <si>
+    <t>NJ Rimmington</t>
+  </si>
+  <si>
+    <t>NL McCullum</t>
+  </si>
+  <si>
+    <t>NLTC Perera</t>
+  </si>
+  <si>
+    <t>NM Coulter-Nile</t>
+  </si>
+  <si>
+    <t>NS Naik</t>
+  </si>
+  <si>
+    <t>NT Ellis</t>
+  </si>
+  <si>
+    <t>NV Ojha</t>
+  </si>
+  <si>
+    <t>O Thomas</t>
+  </si>
+  <si>
+    <t>OA Shah</t>
+  </si>
+  <si>
+    <t>OC McCoy</t>
+  </si>
+  <si>
+    <t>OF Smith</t>
+  </si>
+  <si>
+    <t>P Amarnath</t>
+  </si>
+  <si>
+    <t>P Awana</t>
+  </si>
+  <si>
+    <t>P Chopra</t>
+  </si>
+  <si>
+    <t>P Dogra</t>
+  </si>
+  <si>
+    <t>P Dubey</t>
+  </si>
+  <si>
+    <t>P Kumar</t>
+  </si>
+  <si>
+    <t>P Negi</t>
+  </si>
+  <si>
+    <t>P Parameswaran</t>
+  </si>
+  <si>
+    <t>P Prasanth</t>
+  </si>
+  <si>
+    <t>P Ray Barman</t>
+  </si>
+  <si>
+    <t>P Sahu</t>
+  </si>
+  <si>
+    <t>P Simran Singh</t>
+  </si>
+  <si>
+    <t>P Suyal</t>
+  </si>
+  <si>
+    <t>PA Patel</t>
+  </si>
+  <si>
+    <t>PA Reddy</t>
+  </si>
+  <si>
+    <t>Pankaj Singh</t>
+  </si>
+  <si>
+    <t>Parvez Rasool</t>
+  </si>
+  <si>
+    <t>PBB Rajapaksa</t>
+  </si>
+  <si>
+    <t>PC Valthaty</t>
+  </si>
+  <si>
+    <t>PD Collingwood</t>
+  </si>
+  <si>
+    <t>PH Solanki</t>
+  </si>
+  <si>
+    <t>PJ Cummins</t>
+  </si>
+  <si>
+    <t>PJ Sangwan</t>
+  </si>
+  <si>
+    <t>PK Garg</t>
+  </si>
+  <si>
+    <t>PM Sarvesh Kumar</t>
+  </si>
+  <si>
+    <t>PN Mankad</t>
+  </si>
+  <si>
+    <t>PP Chawla</t>
+  </si>
+  <si>
+    <t>PP Ojha</t>
+  </si>
+  <si>
+    <t>PP Shaw</t>
+  </si>
+  <si>
+    <t>PR Shah</t>
+  </si>
+  <si>
+    <t>PSP Handscomb</t>
+  </si>
+  <si>
+    <t>PV Tambe</t>
+  </si>
+  <si>
+    <t>PVD Chameera</t>
+  </si>
+  <si>
+    <t>PWH de Silva</t>
+  </si>
+  <si>
+    <t>Q de Kock</t>
+  </si>
+  <si>
+    <t>R Ashwin</t>
+  </si>
+  <si>
+    <t>R Bhatia</t>
+  </si>
+  <si>
+    <t>R Bishnoi</t>
+  </si>
+  <si>
+    <t>R Dhawan</t>
+  </si>
+  <si>
+    <t>R Dravid</t>
+  </si>
+  <si>
+    <t>R McLaren</t>
+  </si>
+  <si>
+    <t>R Ninan</t>
+  </si>
+  <si>
+    <t>R Parag</t>
+  </si>
+  <si>
+    <t>R Powell</t>
+  </si>
+  <si>
+    <t>R Rampaul</t>
+  </si>
+  <si>
+    <t>R Sai Kishore</t>
+  </si>
+  <si>
+    <t>R Sanjay Yadav</t>
+  </si>
+  <si>
+    <t>R Sathish</t>
+  </si>
+  <si>
+    <t>R Sharma</t>
+  </si>
+  <si>
+    <t>R Shepherd</t>
+  </si>
+  <si>
+    <t>R Shukla</t>
+  </si>
+  <si>
+    <t>R Tewatia</t>
+  </si>
+  <si>
+    <t>R Vinay Kumar</t>
+  </si>
+  <si>
+    <t>RA Bawa</t>
+  </si>
+  <si>
+    <t>RA Jadeja</t>
+  </si>
+  <si>
+    <t>RA Shaikh</t>
+  </si>
+  <si>
+    <t>RA Tripathi</t>
+  </si>
+  <si>
+    <t>Ramandeep Singh</t>
+  </si>
+  <si>
+    <t>Rashid Khan</t>
+  </si>
+  <si>
+    <t>Rasikh Salam</t>
+  </si>
+  <si>
+    <t>Ravi Bishnoi</t>
+  </si>
+  <si>
+    <t>RD Chahar</t>
+  </si>
+  <si>
+    <t>RD Gaikwad</t>
+  </si>
+  <si>
+    <t>RE Levi</t>
+  </si>
+  <si>
+    <t>RE van der Merwe</t>
+  </si>
+  <si>
+    <t>RG More</t>
+  </si>
+  <si>
+    <t>RG Sharma</t>
+  </si>
+  <si>
+    <t>RJ Harris</t>
+  </si>
+  <si>
+    <t>RJ Peterson</t>
+  </si>
+  <si>
+    <t>RJ Quiney</t>
+  </si>
+  <si>
+    <t>RK Bhui</t>
+  </si>
+  <si>
+    <t>RK Singh</t>
+  </si>
+  <si>
+    <t>RM Patidar</t>
+  </si>
+  <si>
+    <t>RN ten Doeschate</t>
+  </si>
+  <si>
+    <t>RP Meredith</t>
+  </si>
+  <si>
+    <t>RP Singh</t>
+  </si>
+  <si>
+    <t>RR Bhatkal</t>
+  </si>
+  <si>
+    <t>RR Bose</t>
+  </si>
+  <si>
+    <t>RR Pant</t>
+  </si>
+  <si>
+    <t>RR Powar</t>
+  </si>
+  <si>
+    <t>RR Raje</t>
+  </si>
+  <si>
+    <t>RR Rossouw</t>
+  </si>
+  <si>
+    <t>RR Sarwan</t>
+  </si>
+  <si>
+    <t>RS Bopara</t>
+  </si>
+  <si>
+    <t>RS Gavaskar</t>
+  </si>
+  <si>
+    <t>RS Sodhi</t>
+  </si>
+  <si>
+    <t>RT Ponting</t>
+  </si>
+  <si>
+    <t>RV Gomez</t>
+  </si>
+  <si>
+    <t>RV Patel</t>
+  </si>
+  <si>
+    <t>RV Uthappa</t>
+  </si>
+  <si>
+    <t>RW Price</t>
+  </si>
+  <si>
+    <t>S Anirudha</t>
+  </si>
+  <si>
+    <t>S Aravind</t>
+  </si>
+  <si>
+    <t>S Badree</t>
+  </si>
+  <si>
+    <t>S Badrinath</t>
+  </si>
+  <si>
+    <t>S Chanderpaul</t>
+  </si>
+  <si>
+    <t>S Dhawan</t>
+  </si>
+  <si>
+    <t>S Dube</t>
+  </si>
+  <si>
+    <t>S Gopal</t>
+  </si>
+  <si>
+    <t>S Kaul</t>
+  </si>
+  <si>
+    <t>S Kaushik</t>
+  </si>
+  <si>
+    <t>S Ladda</t>
+  </si>
+  <si>
+    <t>S Lamichhane</t>
+  </si>
+  <si>
+    <t>S Midhun</t>
+  </si>
+  <si>
+    <t>S Nadeem</t>
+  </si>
+  <si>
+    <t>S Narwal</t>
+  </si>
+  <si>
+    <t>S Rana</t>
+  </si>
+  <si>
+    <t>S Randiv</t>
+  </si>
+  <si>
+    <t>S Sandeep Warrier</t>
+  </si>
+  <si>
+    <t>S Sohal</t>
+  </si>
+  <si>
+    <t>S Sreesanth</t>
+  </si>
+  <si>
+    <t>S Sriram</t>
+  </si>
+  <si>
+    <t>S Tyagi</t>
+  </si>
+  <si>
+    <t>S Vidyut</t>
+  </si>
+  <si>
+    <t>SA Abbott</t>
+  </si>
+  <si>
+    <t>SA Asnodkar</t>
+  </si>
+  <si>
+    <t>SA Yadav</t>
+  </si>
+  <si>
+    <t>Sachin Baby</t>
+  </si>
+  <si>
+    <t>Salman Butt</t>
+  </si>
+  <si>
+    <t>Sandeep Sharma</t>
+  </si>
+  <si>
+    <t>SB Bangar</t>
+  </si>
+  <si>
+    <t>SB Jakati</t>
+  </si>
+  <si>
+    <t>SB Joshi</t>
+  </si>
+  <si>
+    <t>SB Styris</t>
+  </si>
+  <si>
+    <t>SB Wagh</t>
+  </si>
+  <si>
+    <t>SC Ganguly</t>
+  </si>
+  <si>
+    <t>SC Kuggeleijn</t>
+  </si>
+  <si>
+    <t>SD Chitnis</t>
+  </si>
+  <si>
+    <t>SD Lad</t>
+  </si>
+  <si>
+    <t>SE Bond</t>
+  </si>
+  <si>
+    <t>SE Marsh</t>
+  </si>
+  <si>
+    <t>SE Rutherford</t>
+  </si>
+  <si>
+    <t>Shahbaz Ahmed</t>
+  </si>
+  <si>
+    <t>Shahid Afridi</t>
+  </si>
+  <si>
+    <t>Shakib Al Hasan</t>
+  </si>
+  <si>
+    <t>Shashank Singh</t>
+  </si>
+  <si>
+    <t>Shivam Mavi</t>
+  </si>
+  <si>
+    <t>Shivam Sharma</t>
+  </si>
+  <si>
+    <t>Shoaib Ahmed</t>
+  </si>
+  <si>
+    <t>Shoaib Akhtar</t>
+  </si>
+  <si>
+    <t>Shoaib Malik</t>
+  </si>
+  <si>
+    <t>Shubman Gill</t>
+  </si>
+  <si>
+    <t>Simarjeet Singh</t>
+  </si>
+  <si>
+    <t>SJ Srivastava</t>
+  </si>
+  <si>
+    <t>SK Raina</t>
+  </si>
+  <si>
+    <t>SK Trivedi</t>
+  </si>
+  <si>
+    <t>SK Warne</t>
+  </si>
+  <si>
+    <t>SL Malinga</t>
+  </si>
+  <si>
+    <t>SM Boland</t>
+  </si>
+  <si>
+    <t>SM Curran</t>
+  </si>
+  <si>
+    <t>SM Harwood</t>
+  </si>
+  <si>
+    <t>SM Katich</t>
+  </si>
+  <si>
+    <t>SM Pollock</t>
+  </si>
+  <si>
+    <t>SMSM Senanayake</t>
+  </si>
+  <si>
+    <t>SN Khan</t>
+  </si>
+  <si>
+    <t>SN Thakur</t>
+  </si>
+  <si>
+    <t>SO Hetmyer</t>
+  </si>
+  <si>
+    <t>Sohail Tanvir</t>
+  </si>
+  <si>
+    <t>SP Fleming</t>
+  </si>
+  <si>
+    <t>SP Goswami</t>
+  </si>
+  <si>
+    <t>SP Jackson</t>
+  </si>
+  <si>
+    <t>SP Narine</t>
+  </si>
+  <si>
+    <t>SPD Smith</t>
+  </si>
+  <si>
+    <t>SR Tendulkar</t>
+  </si>
+  <si>
+    <t>SR Watson</t>
+  </si>
+  <si>
+    <t>SS Agarwal</t>
+  </si>
+  <si>
+    <t>SS Cottrell</t>
+  </si>
+  <si>
+    <t>SS Iyer</t>
+  </si>
+  <si>
+    <t>SS Mundhe</t>
+  </si>
+  <si>
+    <t>SS Prabhudessai</t>
+  </si>
+  <si>
+    <t>SS Sarkar</t>
+  </si>
+  <si>
+    <t>SS Shaikh</t>
+  </si>
+  <si>
+    <t>SS Tiwary</t>
+  </si>
+  <si>
+    <t>ST Jayasuriya</t>
+  </si>
+  <si>
+    <t>STR Binny</t>
+  </si>
+  <si>
+    <t>Sunny Gupta</t>
+  </si>
+  <si>
+    <t>Sunny Singh</t>
+  </si>
+  <si>
+    <t>SV Samson</t>
+  </si>
+  <si>
+    <t>SW Billings</t>
+  </si>
+  <si>
+    <t>SW Tait</t>
+  </si>
+  <si>
+    <t>Swapnil Singh</t>
+  </si>
+  <si>
+    <t>T Banton</t>
+  </si>
+  <si>
+    <t>T Henderson</t>
+  </si>
+  <si>
+    <t>T Kohli</t>
+  </si>
+  <si>
+    <t>T Natarajan</t>
+  </si>
+  <si>
+    <t>T Shamsi</t>
+  </si>
+  <si>
+    <t>T Stubbs</t>
+  </si>
+  <si>
+    <t>T Taibu</t>
+  </si>
+  <si>
+    <t>T Thushara</t>
+  </si>
+  <si>
+    <t>TA Boult</t>
+  </si>
+  <si>
+    <t>TD Paine</t>
+  </si>
+  <si>
+    <t>Tejas Baroka</t>
+  </si>
+  <si>
+    <t>TG Southee</t>
+  </si>
+  <si>
+    <t>TH David</t>
+  </si>
+  <si>
+    <t>Tilak Varma</t>
+  </si>
+  <si>
+    <t>TK Curran</t>
+  </si>
+  <si>
+    <t>TL Seifert</t>
+  </si>
+  <si>
+    <t>TL Suman</t>
+  </si>
+  <si>
+    <t>TM Dilshan</t>
+  </si>
+  <si>
+    <t>TM Head</t>
+  </si>
+  <si>
+    <t>TM Srivastava</t>
+  </si>
+  <si>
+    <t>TP Sudhindra</t>
+  </si>
+  <si>
+    <t>TR Birt</t>
+  </si>
+  <si>
+    <t>TS Mills</t>
+  </si>
+  <si>
+    <t>TU Deshpande</t>
+  </si>
+  <si>
+    <t>U Kaul</t>
+  </si>
+  <si>
+    <t>UA Birla</t>
+  </si>
+  <si>
+    <t>UBT Chand</t>
+  </si>
+  <si>
+    <t>Umar Gul</t>
+  </si>
+  <si>
+    <t>Umran Malik</t>
+  </si>
+  <si>
+    <t>UT Khawaja</t>
+  </si>
+  <si>
+    <t>UT Yadav</t>
+  </si>
+  <si>
+    <t>V Kohli</t>
+  </si>
+  <si>
+    <t>V Pratap Singh</t>
+  </si>
+  <si>
+    <t>V Sehwag</t>
+  </si>
+  <si>
+    <t>V Shankar</t>
+  </si>
+  <si>
+    <t>VG Arora</t>
+  </si>
+  <si>
+    <t>VH Zol</t>
+  </si>
+  <si>
+    <t>Virat Singh</t>
+  </si>
+  <si>
+    <t>Vishnu Vinod</t>
+  </si>
+  <si>
+    <t>VR Aaron</t>
+  </si>
+  <si>
+    <t>VR Iyer</t>
+  </si>
+  <si>
+    <t>VRV Singh</t>
+  </si>
+  <si>
+    <t>VS Malik</t>
+  </si>
+  <si>
+    <t>VS Yeligati</t>
+  </si>
+  <si>
+    <t>VVS Laxman</t>
+  </si>
+  <si>
+    <t>VY Mahesh</t>
+  </si>
+  <si>
+    <t>W Jaffer</t>
+  </si>
+  <si>
+    <t>WA Mota</t>
+  </si>
+  <si>
+    <t>Washington Sundar</t>
+  </si>
+  <si>
+    <t>WD Parnell</t>
+  </si>
+  <si>
+    <t>WP Saha</t>
+  </si>
+  <si>
+    <t>WPUJC Vaas</t>
+  </si>
+  <si>
+    <t>X Thalaivan Sargunam</t>
+  </si>
+  <si>
+    <t>Y Gnaneswara Rao</t>
+  </si>
+  <si>
+    <t>Y Nagar</t>
+  </si>
+  <si>
+    <t>Y Prithvi Raj</t>
+  </si>
+  <si>
+    <t>Y Venugopal Rao</t>
+  </si>
+  <si>
+    <t>YA Abdulla</t>
+  </si>
+  <si>
+    <t>Yash Dayal</t>
+  </si>
+  <si>
+    <t>Yashpal Singh</t>
+  </si>
+  <si>
+    <t>YBK Jaiswal</t>
+  </si>
+  <si>
+    <t>YK Pathan</t>
+  </si>
+  <si>
+    <t>Younis Khan</t>
+  </si>
+  <si>
+    <t>YS Chahal</t>
+  </si>
+  <si>
+    <t>Yuvraj Singh</t>
+  </si>
+  <si>
+    <t>YV Takawale</t>
+  </si>
+  <si>
+    <t>Z Khan</t>
+  </si>
+  <si>
+    <t>Team2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +2307,3373 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0413163-12C8-42D6-A907-F797644EF411}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$654</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A477FB-C83C-43C2-86B9-1AF096004820}">
+  <dimension ref="A1:A654"/>
+  <sheetViews>
+    <sheetView topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/team2.xlsx
+++ b/input/team2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu Kumar\Documents\IPL\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432B6B1C-B4B4-457F-ADD1-7CC19C100B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC899E5B-536E-4AFB-9482-B6D266FED069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="657">
   <si>
     <t>key</t>
   </si>
@@ -1991,6 +1994,12 @@
   </si>
   <si>
     <t>Team2</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -2026,8 +2035,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2043,6 +2056,3331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Kumar Kandasamy Eswaran" refreshedDate="45016.377784027776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="653" xr:uid="{D12870C3-91BA-450D-BBA4-66E1EE58274F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:A654" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="key" numFmtId="0">
+      <sharedItems count="653">
+        <s v="A Ashish Reddy"/>
+        <s v="A Badoni"/>
+        <s v="A Chandila"/>
+        <s v="A Chopra"/>
+        <s v="A Choudhary"/>
+        <s v="A Dananjaya"/>
+        <s v="A Flintoff"/>
+        <s v="A Kumble"/>
+        <s v="A Manohar"/>
+        <s v="A Mishra"/>
+        <s v="A Mithun"/>
+        <s v="A Mukund"/>
+        <s v="A Nehra"/>
+        <s v="A Nel"/>
+        <s v="A Nortje"/>
+        <s v="A Singh"/>
+        <s v="A Symonds"/>
+        <s v="A Tomar"/>
+        <s v="A Uniyal"/>
+        <s v="A Zampa"/>
+        <s v="AA Bilakhia"/>
+        <s v="AA Chavan"/>
+        <s v="AA Jhunjhunwala"/>
+        <s v="AA Kazi"/>
+        <s v="AA Noffke"/>
+        <s v="AB Agarkar"/>
+        <s v="AB Barath"/>
+        <s v="AB de Villiers"/>
+        <s v="AB Dinda"/>
+        <s v="AB McDonald"/>
+        <s v="Abdul Samad"/>
+        <s v="Abdur Razzak"/>
+        <s v="Abhishek Sharma"/>
+        <s v="AC Blizzard"/>
+        <s v="AC Gilchrist"/>
+        <s v="AC Thomas"/>
+        <s v="AC Voges"/>
+        <s v="AD Hales"/>
+        <s v="AD Mascarenhas"/>
+        <s v="AD Mathews"/>
+        <s v="AD Nath"/>
+        <s v="AD Russell"/>
+        <s v="AF Milne"/>
+        <s v="AG Murtaza"/>
+        <s v="AG Paunikar"/>
+        <s v="AJ Finch"/>
+        <s v="AJ Turner"/>
+        <s v="AJ Tye"/>
+        <s v="AK Markram"/>
+        <s v="Akash Deep"/>
+        <s v="Akash Singh"/>
+        <s v="AL Menaria"/>
+        <s v="AM Nayar"/>
+        <s v="AM Rahane"/>
+        <s v="AM Salvi"/>
+        <s v="Aman Hakim Khan"/>
+        <s v="AN Ahmed"/>
+        <s v="AN Ghosh"/>
+        <s v="Anand Rajan"/>
+        <s v="Anirudh Singh"/>
+        <s v="Ankit Sharma"/>
+        <s v="Ankit Soni"/>
+        <s v="Anmolpreet Singh"/>
+        <s v="Anuj Rawat"/>
+        <s v="Anureet Singh"/>
+        <s v="AP Dole"/>
+        <s v="AP Majumdar"/>
+        <s v="AP Tare"/>
+        <s v="AR Bawne"/>
+        <s v="AR Patel"/>
+        <s v="Arshdeep Singh"/>
+        <s v="AS Joseph"/>
+        <s v="AS Rajpoot"/>
+        <s v="AS Raut"/>
+        <s v="AS Roy"/>
+        <s v="AS Yadav"/>
+        <s v="AT Carey"/>
+        <s v="AT Rayudu"/>
+        <s v="AU Rashid"/>
+        <s v="AUK Pathan"/>
+        <s v="Avesh Khan"/>
+        <s v="Azhar Mahmood"/>
+        <s v="B Akhil"/>
+        <s v="B Chipli"/>
+        <s v="B Geeves"/>
+        <s v="B Indrajith"/>
+        <s v="B Kumar"/>
+        <s v="B Laughlin"/>
+        <s v="B Lee"/>
+        <s v="B Sai Sudharsan"/>
+        <s v="B Stanlake"/>
+        <s v="B Sumanth"/>
+        <s v="BA Bhatt"/>
+        <s v="BA Stokes"/>
+        <s v="Basil Thampi"/>
+        <s v="BAW Mendis"/>
+        <s v="BB McCullum"/>
+        <s v="BB Samantray"/>
+        <s v="BB Sran"/>
+        <s v="BCJ Cutting"/>
+        <s v="BE Hendricks"/>
+        <s v="Bipul Sharma"/>
+        <s v="BJ Haddin"/>
+        <s v="BJ Hodge"/>
+        <s v="BJ Rohrer"/>
+        <s v="BMAJ Mendis"/>
+        <s v="BR Dunk"/>
+        <s v="BW Hilfenhaus"/>
+        <s v="C de Grandhomme"/>
+        <s v="C Ganapathy"/>
+        <s v="C Madan"/>
+        <s v="C Munro"/>
+        <s v="C Nanda"/>
+        <s v="C Sakariya"/>
+        <s v="CA Ingram"/>
+        <s v="CA Lynn"/>
+        <s v="CA Pujara"/>
+        <s v="CH Gayle"/>
+        <s v="CH Morris"/>
+        <s v="CJ Anderson"/>
+        <s v="CJ Dala"/>
+        <s v="CJ Ferguson"/>
+        <s v="CJ Green"/>
+        <s v="CJ Jordan"/>
+        <s v="CJ McKay"/>
+        <s v="CK Kapugedera"/>
+        <s v="CK Langeveldt"/>
+        <s v="CL White"/>
+        <s v="CM Gautam"/>
+        <s v="CR Brathwaite"/>
+        <s v="CR Woakes"/>
+        <s v="CRD Fernando"/>
+        <s v="CV Varun"/>
+        <s v="D Brevis"/>
+        <s v="D du Preez"/>
+        <s v="D Kalyankrishna"/>
+        <s v="D Padikkal"/>
+        <s v="D Pretorius"/>
+        <s v="D Salunkhe"/>
+        <s v="D Wiese"/>
+        <s v="DA Miller"/>
+        <s v="DA Warner"/>
+        <s v="DAJ Bracewell"/>
+        <s v="DB Das"/>
+        <s v="DB Ravi Teja"/>
+        <s v="DE Bollinger"/>
+        <s v="DG Nalkande"/>
+        <s v="DH Yagnik"/>
+        <s v="DJ Bravo"/>
+        <s v="DJ Harris"/>
+        <s v="DJ Hooda"/>
+        <s v="DJ Hussey"/>
+        <s v="DJ Jacobs"/>
+        <s v="DJ Malan"/>
+        <s v="DJ Mitchell"/>
+        <s v="DJ Muthuswami"/>
+        <s v="DJ Thornely"/>
+        <s v="DJ Willey"/>
+        <s v="DJG Sammy"/>
+        <s v="DJM Short"/>
+        <s v="DL Chahar"/>
+        <s v="DL Vettori"/>
+        <s v="DM Bravo"/>
+        <s v="DNT Zoysa"/>
+        <s v="DP Conway"/>
+        <s v="DP Nannes"/>
+        <s v="DP Vijaykumar"/>
+        <s v="DPMD Jayawardene"/>
+        <s v="DR Martyn"/>
+        <s v="DR Sams"/>
+        <s v="DR Shorey"/>
+        <s v="DR Smith"/>
+        <s v="DS Kulkarni"/>
+        <s v="DS Lehmann"/>
+        <s v="DT Christian"/>
+        <s v="DT Patil"/>
+        <s v="DW Steyn"/>
+        <s v="E Lewis"/>
+        <s v="EJG Morgan"/>
+        <s v="ER Dwivedi"/>
+        <s v="F Behardien"/>
+        <s v="F du Plessis"/>
+        <s v="FA Allen"/>
+        <s v="Fazalhaq Farooqi"/>
+        <s v="FH Edwards"/>
+        <s v="FY Fazal"/>
+        <s v="G Gambhir"/>
+        <s v="Gagandeep Singh"/>
+        <s v="GB Hogg"/>
+        <s v="GC Smith"/>
+        <s v="GC Viljoen"/>
+        <s v="GD McGrath"/>
+        <s v="GD Phillips"/>
+        <s v="GH Vihari"/>
+        <s v="GHS Garton"/>
+        <s v="GJ Bailey"/>
+        <s v="GJ Maxwell"/>
+        <s v="GR Napier"/>
+        <s v="GS Sandhu"/>
+        <s v="Gurkeerat Singh"/>
+        <s v="H Das"/>
+        <s v="H Klaasen"/>
+        <s v="Harbhajan Singh"/>
+        <s v="Harmeet Singh"/>
+        <s v="Harmeet Singh (2)"/>
+        <s v="Harpreet Brar"/>
+        <s v="Harpreet Singh"/>
+        <s v="Harshit Rana"/>
+        <s v="HE van der Dussen"/>
+        <s v="HF Gurney"/>
+        <s v="HH Gibbs"/>
+        <s v="HH Pandya"/>
+        <s v="HM Amla"/>
+        <s v="HR Shokeen"/>
+        <s v="HV Patel"/>
+        <s v="I Malhotra"/>
+        <s v="I Sharma"/>
+        <s v="I Udana"/>
+        <s v="IC Pandey"/>
+        <s v="IC Porel"/>
+        <s v="IK Pathan"/>
+        <s v="Imran Tahir"/>
+        <s v="Iqbal Abdulla"/>
+        <s v="IR Jaggi"/>
+        <s v="IS Sodhi"/>
+        <s v="Ishan Kishan"/>
+        <s v="J Arunkumar"/>
+        <s v="J Botha"/>
+        <s v="J Suchith"/>
+        <s v="J Syed Mohammad"/>
+        <s v="J Theron"/>
+        <s v="J Yadav"/>
+        <s v="JA Morkel"/>
+        <s v="JA Richardson"/>
+        <s v="Jalaj S Saxena"/>
+        <s v="Jaskaran Singh"/>
+        <s v="JC Archer"/>
+        <s v="JC Buttler"/>
+        <s v="JD Ryder"/>
+        <s v="JD Unadkat"/>
+        <s v="JDP Oram"/>
+        <s v="JDS Neesham"/>
+        <s v="JE Taylor"/>
+        <s v="JEC Franklin"/>
+        <s v="JH Kallis"/>
+        <s v="JJ Bumrah"/>
+        <s v="JJ Roy"/>
+        <s v="JJ van der Wath"/>
+        <s v="JL Denly"/>
+        <s v="JL Pattinson"/>
+        <s v="JM Bairstow"/>
+        <s v="JM Kemp"/>
+        <s v="JM Sharma"/>
+        <s v="JO Holder"/>
+        <s v="Joginder Sharma"/>
+        <s v="JP Behrendorff"/>
+        <s v="JP Duminy"/>
+        <s v="JP Faulkner"/>
+        <s v="JPR Scantlebury-Searles"/>
+        <s v="JR Hazlewood"/>
+        <s v="JR Hopes"/>
+        <s v="JR Philippe"/>
+        <s v="JW Hastings"/>
+        <s v="K Goel"/>
+        <s v="K Gowtham"/>
+        <s v="K Kartikeya"/>
+        <s v="K Khejroliya"/>
+        <s v="K Rabada"/>
+        <s v="K Santokie"/>
+        <s v="K Upadhyay"/>
+        <s v="K Yadav"/>
+        <s v="KA Jamieson"/>
+        <s v="KA Pollard"/>
+        <s v="KAJ Roach"/>
+        <s v="Kamran Akmal"/>
+        <s v="Kamran Khan"/>
+        <s v="Karanveer Singh"/>
+        <s v="Kartik Tyagi"/>
+        <s v="KB Arun Karthik"/>
+        <s v="KC Cariappa"/>
+        <s v="KC Sangakkara"/>
+        <s v="KD Karthik"/>
+        <s v="KH Pandya"/>
+        <s v="KJ Abbott"/>
+        <s v="KK Ahmed"/>
+        <s v="KK Cooper"/>
+        <s v="KK Nair"/>
+        <s v="KL Nagarkoti"/>
+        <s v="KL Rahul"/>
+        <s v="KM Asif"/>
+        <s v="KM Jadhav"/>
+        <s v="KMA Paul"/>
+        <s v="KMDN Kulasekara"/>
+        <s v="KP Appanna"/>
+        <s v="KP Pietersen"/>
+        <s v="KR Sen"/>
+        <s v="KS Bharat"/>
+        <s v="KS Sharma"/>
+        <s v="KS Williamson"/>
+        <s v="Kuldeep Yadav"/>
+        <s v="KV Sharma"/>
+        <s v="KW Richardson"/>
+        <s v="L Ablish"/>
+        <s v="L Balaji"/>
+        <s v="L Ngidi"/>
+        <s v="L Ronchi"/>
+        <s v="LA Carseldine"/>
+        <s v="LA Pomersbach"/>
+        <s v="Lalit Yadav"/>
+        <s v="LE Plunkett"/>
+        <s v="LH Ferguson"/>
+        <s v="LI Meriwala"/>
+        <s v="LJ Wright"/>
+        <s v="LMP Simmons"/>
+        <s v="LPC Silva"/>
+        <s v="LR Shukla"/>
+        <s v="LRPL Taylor"/>
+        <s v="LS Livingstone"/>
+        <s v="M Ashwin"/>
+        <s v="M de Lange"/>
+        <s v="M Jansen"/>
+        <s v="M Kaif"/>
+        <s v="M Kartik"/>
+        <s v="M Klinger"/>
+        <s v="M Manhas"/>
+        <s v="M Markande"/>
+        <s v="M Morkel"/>
+        <s v="M Muralitharan"/>
+        <s v="M Ntini"/>
+        <s v="M Pathirana"/>
+        <s v="M Prasidh Krishna"/>
+        <s v="M Rawat"/>
+        <s v="M Shahrukh Khan"/>
+        <s v="M Theekshana"/>
+        <s v="M Vijay"/>
+        <s v="M Vohra"/>
+        <s v="MA Agarwal"/>
+        <s v="MA Khote"/>
+        <s v="MA Starc"/>
+        <s v="MA Wood"/>
+        <s v="Mandeep Singh"/>
+        <s v="Mashrafe Mortaza"/>
+        <s v="MB Parmar"/>
+        <s v="MC Henriques"/>
+        <s v="MC Juneja"/>
+        <s v="MD Mishra"/>
+        <s v="MDKJ Perera"/>
+        <s v="MEK Hussey"/>
+        <s v="MF Maharoof"/>
+        <s v="MG Johnson"/>
+        <s v="MG Neser"/>
+        <s v="Misbah-ul-Haq"/>
+        <s v="MJ Clarke"/>
+        <s v="MJ Guptill"/>
+        <s v="MJ Henry"/>
+        <s v="MJ Lumb"/>
+        <s v="MJ McClenaghan"/>
+        <s v="MJ Santner"/>
+        <s v="MK Lomror"/>
+        <s v="MK Pandey"/>
+        <s v="MK Tiwary"/>
+        <s v="ML Hayden"/>
+        <s v="MM Ali"/>
+        <s v="MM Patel"/>
+        <s v="MM Sharma"/>
+        <s v="MN Samuels"/>
+        <s v="MN van Wyk"/>
+        <s v="Mohammad Ashraful"/>
+        <s v="Mohammad Asif"/>
+        <s v="Mohammad Hafeez"/>
+        <s v="Mohammad Nabi"/>
+        <s v="Mohammed Shami"/>
+        <s v="Mohammed Siraj"/>
+        <s v="Mohsin Khan (2)"/>
+        <s v="Monu Kumar"/>
+        <s v="MP Stoinis"/>
+        <s v="MR Marsh"/>
+        <s v="MS Bisla"/>
+        <s v="MS Dhoni"/>
+        <s v="MS Gony"/>
+        <s v="MS Wade"/>
+        <s v="Mujeeb Ur Rahman"/>
+        <s v="Mukesh Choudhary"/>
+        <s v="Mustafizur Rahman"/>
+        <s v="MV Boucher"/>
+        <s v="N Jagadeesan"/>
+        <s v="N Pooran"/>
+        <s v="N Rana"/>
+        <s v="N Saini"/>
+        <s v="NA Saini"/>
+        <s v="NB Singh"/>
+        <s v="ND Doshi"/>
+        <s v="Niraj Patel"/>
+        <s v="NJ Maddinson"/>
+        <s v="NJ Rimmington"/>
+        <s v="NL McCullum"/>
+        <s v="NLTC Perera"/>
+        <s v="NM Coulter-Nile"/>
+        <s v="NS Naik"/>
+        <s v="NT Ellis"/>
+        <s v="NV Ojha"/>
+        <s v="O Thomas"/>
+        <s v="OA Shah"/>
+        <s v="OC McCoy"/>
+        <s v="OF Smith"/>
+        <s v="P Amarnath"/>
+        <s v="P Awana"/>
+        <s v="P Chopra"/>
+        <s v="P Dogra"/>
+        <s v="P Dubey"/>
+        <s v="P Kumar"/>
+        <s v="P Negi"/>
+        <s v="P Parameswaran"/>
+        <s v="P Prasanth"/>
+        <s v="P Ray Barman"/>
+        <s v="P Sahu"/>
+        <s v="P Simran Singh"/>
+        <s v="P Suyal"/>
+        <s v="PA Patel"/>
+        <s v="PA Reddy"/>
+        <s v="Pankaj Singh"/>
+        <s v="Parvez Rasool"/>
+        <s v="PBB Rajapaksa"/>
+        <s v="PC Valthaty"/>
+        <s v="PD Collingwood"/>
+        <s v="PH Solanki"/>
+        <s v="PJ Cummins"/>
+        <s v="PJ Sangwan"/>
+        <s v="PK Garg"/>
+        <s v="PM Sarvesh Kumar"/>
+        <s v="PN Mankad"/>
+        <s v="PP Chawla"/>
+        <s v="PP Ojha"/>
+        <s v="PP Shaw"/>
+        <s v="PR Shah"/>
+        <s v="PSP Handscomb"/>
+        <s v="PV Tambe"/>
+        <s v="PVD Chameera"/>
+        <s v="PWH de Silva"/>
+        <s v="Q de Kock"/>
+        <s v="R Ashwin"/>
+        <s v="R Bhatia"/>
+        <s v="R Bishnoi"/>
+        <s v="R Dhawan"/>
+        <s v="R Dravid"/>
+        <s v="R McLaren"/>
+        <s v="R Ninan"/>
+        <s v="R Parag"/>
+        <s v="R Powell"/>
+        <s v="R Rampaul"/>
+        <s v="R Sai Kishore"/>
+        <s v="R Sanjay Yadav"/>
+        <s v="R Sathish"/>
+        <s v="R Sharma"/>
+        <s v="R Shepherd"/>
+        <s v="R Shukla"/>
+        <s v="R Tewatia"/>
+        <s v="R Vinay Kumar"/>
+        <s v="RA Bawa"/>
+        <s v="RA Jadeja"/>
+        <s v="RA Shaikh"/>
+        <s v="RA Tripathi"/>
+        <s v="Ramandeep Singh"/>
+        <s v="Rashid Khan"/>
+        <s v="Rasikh Salam"/>
+        <s v="Ravi Bishnoi"/>
+        <s v="RD Chahar"/>
+        <s v="RD Gaikwad"/>
+        <s v="RE Levi"/>
+        <s v="RE van der Merwe"/>
+        <s v="RG More"/>
+        <s v="RG Sharma"/>
+        <s v="RJ Harris"/>
+        <s v="RJ Peterson"/>
+        <s v="RJ Quiney"/>
+        <s v="RK Bhui"/>
+        <s v="RK Singh"/>
+        <s v="RM Patidar"/>
+        <s v="RN ten Doeschate"/>
+        <s v="RP Meredith"/>
+        <s v="RP Singh"/>
+        <s v="RR Bhatkal"/>
+        <s v="RR Bose"/>
+        <s v="RR Pant"/>
+        <s v="RR Powar"/>
+        <s v="RR Raje"/>
+        <s v="RR Rossouw"/>
+        <s v="RR Sarwan"/>
+        <s v="RS Bopara"/>
+        <s v="RS Gavaskar"/>
+        <s v="RS Sodhi"/>
+        <s v="RT Ponting"/>
+        <s v="RV Gomez"/>
+        <s v="RV Patel"/>
+        <s v="RV Uthappa"/>
+        <s v="RW Price"/>
+        <s v="S Anirudha"/>
+        <s v="S Aravind"/>
+        <s v="S Badree"/>
+        <s v="S Badrinath"/>
+        <s v="S Chanderpaul"/>
+        <s v="S Dhawan"/>
+        <s v="S Dube"/>
+        <s v="S Gopal"/>
+        <s v="S Kaul"/>
+        <s v="S Kaushik"/>
+        <s v="S Ladda"/>
+        <s v="S Lamichhane"/>
+        <s v="S Midhun"/>
+        <s v="S Nadeem"/>
+        <s v="S Narwal"/>
+        <s v="S Rana"/>
+        <s v="S Randiv"/>
+        <s v="S Sandeep Warrier"/>
+        <s v="S Sohal"/>
+        <s v="S Sreesanth"/>
+        <s v="S Sriram"/>
+        <s v="S Tyagi"/>
+        <s v="S Vidyut"/>
+        <s v="SA Abbott"/>
+        <s v="SA Asnodkar"/>
+        <s v="SA Yadav"/>
+        <s v="Sachin Baby"/>
+        <s v="Salman Butt"/>
+        <s v="Sandeep Sharma"/>
+        <s v="SB Bangar"/>
+        <s v="SB Jakati"/>
+        <s v="SB Joshi"/>
+        <s v="SB Styris"/>
+        <s v="SB Wagh"/>
+        <s v="SC Ganguly"/>
+        <s v="SC Kuggeleijn"/>
+        <s v="SD Chitnis"/>
+        <s v="SD Lad"/>
+        <s v="SE Bond"/>
+        <s v="SE Marsh"/>
+        <s v="SE Rutherford"/>
+        <s v="Shahbaz Ahmed"/>
+        <s v="Shahid Afridi"/>
+        <s v="Shakib Al Hasan"/>
+        <s v="Shashank Singh"/>
+        <s v="Shivam Mavi"/>
+        <s v="Shivam Sharma"/>
+        <s v="Shoaib Ahmed"/>
+        <s v="Shoaib Akhtar"/>
+        <s v="Shoaib Malik"/>
+        <s v="Shubman Gill"/>
+        <s v="Simarjeet Singh"/>
+        <s v="SJ Srivastava"/>
+        <s v="SK Raina"/>
+        <s v="SK Trivedi"/>
+        <s v="SK Warne"/>
+        <s v="SL Malinga"/>
+        <s v="SM Boland"/>
+        <s v="SM Curran"/>
+        <s v="SM Harwood"/>
+        <s v="SM Katich"/>
+        <s v="SM Pollock"/>
+        <s v="SMSM Senanayake"/>
+        <s v="SN Khan"/>
+        <s v="SN Thakur"/>
+        <s v="SO Hetmyer"/>
+        <s v="Sohail Tanvir"/>
+        <s v="SP Fleming"/>
+        <s v="SP Goswami"/>
+        <s v="SP Jackson"/>
+        <s v="SP Narine"/>
+        <s v="SPD Smith"/>
+        <s v="SR Tendulkar"/>
+        <s v="SR Watson"/>
+        <s v="SS Agarwal"/>
+        <s v="SS Cottrell"/>
+        <s v="SS Iyer"/>
+        <s v="SS Mundhe"/>
+        <s v="SS Prabhudessai"/>
+        <s v="SS Sarkar"/>
+        <s v="SS Shaikh"/>
+        <s v="SS Tiwary"/>
+        <s v="ST Jayasuriya"/>
+        <s v="STR Binny"/>
+        <s v="Sunny Gupta"/>
+        <s v="Sunny Singh"/>
+        <s v="SV Samson"/>
+        <s v="SW Billings"/>
+        <s v="SW Tait"/>
+        <s v="Swapnil Singh"/>
+        <s v="T Banton"/>
+        <s v="T Henderson"/>
+        <s v="T Kohli"/>
+        <s v="T Natarajan"/>
+        <s v="T Shamsi"/>
+        <s v="T Stubbs"/>
+        <s v="T Taibu"/>
+        <s v="T Thushara"/>
+        <s v="TA Boult"/>
+        <s v="TD Paine"/>
+        <s v="Tejas Baroka"/>
+        <s v="TG Southee"/>
+        <s v="TH David"/>
+        <s v="Tilak Varma"/>
+        <s v="TK Curran"/>
+        <s v="TL Seifert"/>
+        <s v="TL Suman"/>
+        <s v="TM Dilshan"/>
+        <s v="TM Head"/>
+        <s v="TM Srivastava"/>
+        <s v="TP Sudhindra"/>
+        <s v="TR Birt"/>
+        <s v="TS Mills"/>
+        <s v="TU Deshpande"/>
+        <s v="U Kaul"/>
+        <s v="UA Birla"/>
+        <s v="UBT Chand"/>
+        <s v="Umar Gul"/>
+        <s v="Umran Malik"/>
+        <s v="UT Khawaja"/>
+        <s v="UT Yadav"/>
+        <s v="V Kohli"/>
+        <s v="V Pratap Singh"/>
+        <s v="V Sehwag"/>
+        <s v="V Shankar"/>
+        <s v="VG Arora"/>
+        <s v="VH Zol"/>
+        <s v="Virat Singh"/>
+        <s v="Vishnu Vinod"/>
+        <s v="VR Aaron"/>
+        <s v="VR Iyer"/>
+        <s v="VRV Singh"/>
+        <s v="VS Malik"/>
+        <s v="VS Yeligati"/>
+        <s v="VVS Laxman"/>
+        <s v="VY Mahesh"/>
+        <s v="W Jaffer"/>
+        <s v="WA Mota"/>
+        <s v="Washington Sundar"/>
+        <s v="WD Parnell"/>
+        <s v="WP Saha"/>
+        <s v="WPUJC Vaas"/>
+        <s v="X Thalaivan Sargunam"/>
+        <s v="Y Gnaneswara Rao"/>
+        <s v="Y Nagar"/>
+        <s v="Y Prithvi Raj"/>
+        <s v="Y Venugopal Rao"/>
+        <s v="YA Abdulla"/>
+        <s v="Yash Dayal"/>
+        <s v="Yashpal Singh"/>
+        <s v="YBK Jaiswal"/>
+        <s v="YK Pathan"/>
+        <s v="Younis Khan"/>
+        <s v="YS Chahal"/>
+        <s v="Yuvraj Singh"/>
+        <s v="YV Takawale"/>
+        <s v="Z Khan"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="653">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="104"/>
+  </r>
+  <r>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="106"/>
+  </r>
+  <r>
+    <x v="107"/>
+  </r>
+  <r>
+    <x v="108"/>
+  </r>
+  <r>
+    <x v="109"/>
+  </r>
+  <r>
+    <x v="110"/>
+  </r>
+  <r>
+    <x v="111"/>
+  </r>
+  <r>
+    <x v="112"/>
+  </r>
+  <r>
+    <x v="113"/>
+  </r>
+  <r>
+    <x v="114"/>
+  </r>
+  <r>
+    <x v="115"/>
+  </r>
+  <r>
+    <x v="116"/>
+  </r>
+  <r>
+    <x v="117"/>
+  </r>
+  <r>
+    <x v="118"/>
+  </r>
+  <r>
+    <x v="119"/>
+  </r>
+  <r>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="121"/>
+  </r>
+  <r>
+    <x v="122"/>
+  </r>
+  <r>
+    <x v="123"/>
+  </r>
+  <r>
+    <x v="124"/>
+  </r>
+  <r>
+    <x v="125"/>
+  </r>
+  <r>
+    <x v="126"/>
+  </r>
+  <r>
+    <x v="127"/>
+  </r>
+  <r>
+    <x v="128"/>
+  </r>
+  <r>
+    <x v="129"/>
+  </r>
+  <r>
+    <x v="130"/>
+  </r>
+  <r>
+    <x v="131"/>
+  </r>
+  <r>
+    <x v="132"/>
+  </r>
+  <r>
+    <x v="133"/>
+  </r>
+  <r>
+    <x v="134"/>
+  </r>
+  <r>
+    <x v="135"/>
+  </r>
+  <r>
+    <x v="136"/>
+  </r>
+  <r>
+    <x v="137"/>
+  </r>
+  <r>
+    <x v="138"/>
+  </r>
+  <r>
+    <x v="139"/>
+  </r>
+  <r>
+    <x v="140"/>
+  </r>
+  <r>
+    <x v="141"/>
+  </r>
+  <r>
+    <x v="142"/>
+  </r>
+  <r>
+    <x v="143"/>
+  </r>
+  <r>
+    <x v="144"/>
+  </r>
+  <r>
+    <x v="145"/>
+  </r>
+  <r>
+    <x v="146"/>
+  </r>
+  <r>
+    <x v="147"/>
+  </r>
+  <r>
+    <x v="148"/>
+  </r>
+  <r>
+    <x v="149"/>
+  </r>
+  <r>
+    <x v="150"/>
+  </r>
+  <r>
+    <x v="151"/>
+  </r>
+  <r>
+    <x v="152"/>
+  </r>
+  <r>
+    <x v="153"/>
+  </r>
+  <r>
+    <x v="154"/>
+  </r>
+  <r>
+    <x v="155"/>
+  </r>
+  <r>
+    <x v="156"/>
+  </r>
+  <r>
+    <x v="157"/>
+  </r>
+  <r>
+    <x v="158"/>
+  </r>
+  <r>
+    <x v="159"/>
+  </r>
+  <r>
+    <x v="160"/>
+  </r>
+  <r>
+    <x v="161"/>
+  </r>
+  <r>
+    <x v="162"/>
+  </r>
+  <r>
+    <x v="163"/>
+  </r>
+  <r>
+    <x v="164"/>
+  </r>
+  <r>
+    <x v="165"/>
+  </r>
+  <r>
+    <x v="166"/>
+  </r>
+  <r>
+    <x v="167"/>
+  </r>
+  <r>
+    <x v="168"/>
+  </r>
+  <r>
+    <x v="169"/>
+  </r>
+  <r>
+    <x v="170"/>
+  </r>
+  <r>
+    <x v="171"/>
+  </r>
+  <r>
+    <x v="172"/>
+  </r>
+  <r>
+    <x v="173"/>
+  </r>
+  <r>
+    <x v="174"/>
+  </r>
+  <r>
+    <x v="175"/>
+  </r>
+  <r>
+    <x v="176"/>
+  </r>
+  <r>
+    <x v="177"/>
+  </r>
+  <r>
+    <x v="178"/>
+  </r>
+  <r>
+    <x v="179"/>
+  </r>
+  <r>
+    <x v="180"/>
+  </r>
+  <r>
+    <x v="181"/>
+  </r>
+  <r>
+    <x v="182"/>
+  </r>
+  <r>
+    <x v="183"/>
+  </r>
+  <r>
+    <x v="184"/>
+  </r>
+  <r>
+    <x v="185"/>
+  </r>
+  <r>
+    <x v="186"/>
+  </r>
+  <r>
+    <x v="187"/>
+  </r>
+  <r>
+    <x v="188"/>
+  </r>
+  <r>
+    <x v="189"/>
+  </r>
+  <r>
+    <x v="190"/>
+  </r>
+  <r>
+    <x v="191"/>
+  </r>
+  <r>
+    <x v="192"/>
+  </r>
+  <r>
+    <x v="193"/>
+  </r>
+  <r>
+    <x v="194"/>
+  </r>
+  <r>
+    <x v="195"/>
+  </r>
+  <r>
+    <x v="196"/>
+  </r>
+  <r>
+    <x v="197"/>
+  </r>
+  <r>
+    <x v="198"/>
+  </r>
+  <r>
+    <x v="199"/>
+  </r>
+  <r>
+    <x v="200"/>
+  </r>
+  <r>
+    <x v="201"/>
+  </r>
+  <r>
+    <x v="202"/>
+  </r>
+  <r>
+    <x v="203"/>
+  </r>
+  <r>
+    <x v="204"/>
+  </r>
+  <r>
+    <x v="205"/>
+  </r>
+  <r>
+    <x v="206"/>
+  </r>
+  <r>
+    <x v="207"/>
+  </r>
+  <r>
+    <x v="208"/>
+  </r>
+  <r>
+    <x v="209"/>
+  </r>
+  <r>
+    <x v="210"/>
+  </r>
+  <r>
+    <x v="211"/>
+  </r>
+  <r>
+    <x v="212"/>
+  </r>
+  <r>
+    <x v="213"/>
+  </r>
+  <r>
+    <x v="214"/>
+  </r>
+  <r>
+    <x v="215"/>
+  </r>
+  <r>
+    <x v="216"/>
+  </r>
+  <r>
+    <x v="217"/>
+  </r>
+  <r>
+    <x v="218"/>
+  </r>
+  <r>
+    <x v="219"/>
+  </r>
+  <r>
+    <x v="220"/>
+  </r>
+  <r>
+    <x v="221"/>
+  </r>
+  <r>
+    <x v="222"/>
+  </r>
+  <r>
+    <x v="223"/>
+  </r>
+  <r>
+    <x v="224"/>
+  </r>
+  <r>
+    <x v="225"/>
+  </r>
+  <r>
+    <x v="226"/>
+  </r>
+  <r>
+    <x v="227"/>
+  </r>
+  <r>
+    <x v="228"/>
+  </r>
+  <r>
+    <x v="229"/>
+  </r>
+  <r>
+    <x v="230"/>
+  </r>
+  <r>
+    <x v="231"/>
+  </r>
+  <r>
+    <x v="232"/>
+  </r>
+  <r>
+    <x v="233"/>
+  </r>
+  <r>
+    <x v="234"/>
+  </r>
+  <r>
+    <x v="235"/>
+  </r>
+  <r>
+    <x v="236"/>
+  </r>
+  <r>
+    <x v="237"/>
+  </r>
+  <r>
+    <x v="238"/>
+  </r>
+  <r>
+    <x v="239"/>
+  </r>
+  <r>
+    <x v="240"/>
+  </r>
+  <r>
+    <x v="241"/>
+  </r>
+  <r>
+    <x v="242"/>
+  </r>
+  <r>
+    <x v="243"/>
+  </r>
+  <r>
+    <x v="244"/>
+  </r>
+  <r>
+    <x v="245"/>
+  </r>
+  <r>
+    <x v="246"/>
+  </r>
+  <r>
+    <x v="247"/>
+  </r>
+  <r>
+    <x v="248"/>
+  </r>
+  <r>
+    <x v="249"/>
+  </r>
+  <r>
+    <x v="250"/>
+  </r>
+  <r>
+    <x v="251"/>
+  </r>
+  <r>
+    <x v="252"/>
+  </r>
+  <r>
+    <x v="253"/>
+  </r>
+  <r>
+    <x v="254"/>
+  </r>
+  <r>
+    <x v="255"/>
+  </r>
+  <r>
+    <x v="256"/>
+  </r>
+  <r>
+    <x v="257"/>
+  </r>
+  <r>
+    <x v="258"/>
+  </r>
+  <r>
+    <x v="259"/>
+  </r>
+  <r>
+    <x v="260"/>
+  </r>
+  <r>
+    <x v="261"/>
+  </r>
+  <r>
+    <x v="262"/>
+  </r>
+  <r>
+    <x v="263"/>
+  </r>
+  <r>
+    <x v="264"/>
+  </r>
+  <r>
+    <x v="265"/>
+  </r>
+  <r>
+    <x v="266"/>
+  </r>
+  <r>
+    <x v="267"/>
+  </r>
+  <r>
+    <x v="268"/>
+  </r>
+  <r>
+    <x v="269"/>
+  </r>
+  <r>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="271"/>
+  </r>
+  <r>
+    <x v="272"/>
+  </r>
+  <r>
+    <x v="273"/>
+  </r>
+  <r>
+    <x v="274"/>
+  </r>
+  <r>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="276"/>
+  </r>
+  <r>
+    <x v="277"/>
+  </r>
+  <r>
+    <x v="278"/>
+  </r>
+  <r>
+    <x v="279"/>
+  </r>
+  <r>
+    <x v="280"/>
+  </r>
+  <r>
+    <x v="281"/>
+  </r>
+  <r>
+    <x v="282"/>
+  </r>
+  <r>
+    <x v="283"/>
+  </r>
+  <r>
+    <x v="284"/>
+  </r>
+  <r>
+    <x v="285"/>
+  </r>
+  <r>
+    <x v="286"/>
+  </r>
+  <r>
+    <x v="287"/>
+  </r>
+  <r>
+    <x v="288"/>
+  </r>
+  <r>
+    <x v="289"/>
+  </r>
+  <r>
+    <x v="290"/>
+  </r>
+  <r>
+    <x v="291"/>
+  </r>
+  <r>
+    <x v="292"/>
+  </r>
+  <r>
+    <x v="293"/>
+  </r>
+  <r>
+    <x v="294"/>
+  </r>
+  <r>
+    <x v="295"/>
+  </r>
+  <r>
+    <x v="296"/>
+  </r>
+  <r>
+    <x v="297"/>
+  </r>
+  <r>
+    <x v="298"/>
+  </r>
+  <r>
+    <x v="299"/>
+  </r>
+  <r>
+    <x v="300"/>
+  </r>
+  <r>
+    <x v="301"/>
+  </r>
+  <r>
+    <x v="302"/>
+  </r>
+  <r>
+    <x v="303"/>
+  </r>
+  <r>
+    <x v="304"/>
+  </r>
+  <r>
+    <x v="305"/>
+  </r>
+  <r>
+    <x v="306"/>
+  </r>
+  <r>
+    <x v="307"/>
+  </r>
+  <r>
+    <x v="308"/>
+  </r>
+  <r>
+    <x v="309"/>
+  </r>
+  <r>
+    <x v="310"/>
+  </r>
+  <r>
+    <x v="311"/>
+  </r>
+  <r>
+    <x v="312"/>
+  </r>
+  <r>
+    <x v="313"/>
+  </r>
+  <r>
+    <x v="314"/>
+  </r>
+  <r>
+    <x v="315"/>
+  </r>
+  <r>
+    <x v="316"/>
+  </r>
+  <r>
+    <x v="317"/>
+  </r>
+  <r>
+    <x v="318"/>
+  </r>
+  <r>
+    <x v="319"/>
+  </r>
+  <r>
+    <x v="320"/>
+  </r>
+  <r>
+    <x v="321"/>
+  </r>
+  <r>
+    <x v="322"/>
+  </r>
+  <r>
+    <x v="323"/>
+  </r>
+  <r>
+    <x v="324"/>
+  </r>
+  <r>
+    <x v="325"/>
+  </r>
+  <r>
+    <x v="326"/>
+  </r>
+  <r>
+    <x v="327"/>
+  </r>
+  <r>
+    <x v="328"/>
+  </r>
+  <r>
+    <x v="329"/>
+  </r>
+  <r>
+    <x v="330"/>
+  </r>
+  <r>
+    <x v="331"/>
+  </r>
+  <r>
+    <x v="332"/>
+  </r>
+  <r>
+    <x v="333"/>
+  </r>
+  <r>
+    <x v="334"/>
+  </r>
+  <r>
+    <x v="335"/>
+  </r>
+  <r>
+    <x v="336"/>
+  </r>
+  <r>
+    <x v="337"/>
+  </r>
+  <r>
+    <x v="338"/>
+  </r>
+  <r>
+    <x v="339"/>
+  </r>
+  <r>
+    <x v="340"/>
+  </r>
+  <r>
+    <x v="341"/>
+  </r>
+  <r>
+    <x v="342"/>
+  </r>
+  <r>
+    <x v="343"/>
+  </r>
+  <r>
+    <x v="344"/>
+  </r>
+  <r>
+    <x v="345"/>
+  </r>
+  <r>
+    <x v="346"/>
+  </r>
+  <r>
+    <x v="347"/>
+  </r>
+  <r>
+    <x v="348"/>
+  </r>
+  <r>
+    <x v="349"/>
+  </r>
+  <r>
+    <x v="350"/>
+  </r>
+  <r>
+    <x v="351"/>
+  </r>
+  <r>
+    <x v="352"/>
+  </r>
+  <r>
+    <x v="353"/>
+  </r>
+  <r>
+    <x v="354"/>
+  </r>
+  <r>
+    <x v="355"/>
+  </r>
+  <r>
+    <x v="356"/>
+  </r>
+  <r>
+    <x v="357"/>
+  </r>
+  <r>
+    <x v="358"/>
+  </r>
+  <r>
+    <x v="359"/>
+  </r>
+  <r>
+    <x v="360"/>
+  </r>
+  <r>
+    <x v="361"/>
+  </r>
+  <r>
+    <x v="362"/>
+  </r>
+  <r>
+    <x v="363"/>
+  </r>
+  <r>
+    <x v="364"/>
+  </r>
+  <r>
+    <x v="365"/>
+  </r>
+  <r>
+    <x v="366"/>
+  </r>
+  <r>
+    <x v="367"/>
+  </r>
+  <r>
+    <x v="368"/>
+  </r>
+  <r>
+    <x v="369"/>
+  </r>
+  <r>
+    <x v="370"/>
+  </r>
+  <r>
+    <x v="371"/>
+  </r>
+  <r>
+    <x v="372"/>
+  </r>
+  <r>
+    <x v="373"/>
+  </r>
+  <r>
+    <x v="374"/>
+  </r>
+  <r>
+    <x v="375"/>
+  </r>
+  <r>
+    <x v="376"/>
+  </r>
+  <r>
+    <x v="377"/>
+  </r>
+  <r>
+    <x v="378"/>
+  </r>
+  <r>
+    <x v="379"/>
+  </r>
+  <r>
+    <x v="380"/>
+  </r>
+  <r>
+    <x v="381"/>
+  </r>
+  <r>
+    <x v="382"/>
+  </r>
+  <r>
+    <x v="383"/>
+  </r>
+  <r>
+    <x v="384"/>
+  </r>
+  <r>
+    <x v="385"/>
+  </r>
+  <r>
+    <x v="386"/>
+  </r>
+  <r>
+    <x v="387"/>
+  </r>
+  <r>
+    <x v="388"/>
+  </r>
+  <r>
+    <x v="389"/>
+  </r>
+  <r>
+    <x v="390"/>
+  </r>
+  <r>
+    <x v="391"/>
+  </r>
+  <r>
+    <x v="392"/>
+  </r>
+  <r>
+    <x v="393"/>
+  </r>
+  <r>
+    <x v="394"/>
+  </r>
+  <r>
+    <x v="395"/>
+  </r>
+  <r>
+    <x v="396"/>
+  </r>
+  <r>
+    <x v="397"/>
+  </r>
+  <r>
+    <x v="398"/>
+  </r>
+  <r>
+    <x v="399"/>
+  </r>
+  <r>
+    <x v="400"/>
+  </r>
+  <r>
+    <x v="401"/>
+  </r>
+  <r>
+    <x v="402"/>
+  </r>
+  <r>
+    <x v="403"/>
+  </r>
+  <r>
+    <x v="404"/>
+  </r>
+  <r>
+    <x v="405"/>
+  </r>
+  <r>
+    <x v="406"/>
+  </r>
+  <r>
+    <x v="407"/>
+  </r>
+  <r>
+    <x v="408"/>
+  </r>
+  <r>
+    <x v="409"/>
+  </r>
+  <r>
+    <x v="410"/>
+  </r>
+  <r>
+    <x v="411"/>
+  </r>
+  <r>
+    <x v="412"/>
+  </r>
+  <r>
+    <x v="413"/>
+  </r>
+  <r>
+    <x v="414"/>
+  </r>
+  <r>
+    <x v="415"/>
+  </r>
+  <r>
+    <x v="416"/>
+  </r>
+  <r>
+    <x v="417"/>
+  </r>
+  <r>
+    <x v="418"/>
+  </r>
+  <r>
+    <x v="419"/>
+  </r>
+  <r>
+    <x v="420"/>
+  </r>
+  <r>
+    <x v="421"/>
+  </r>
+  <r>
+    <x v="422"/>
+  </r>
+  <r>
+    <x v="423"/>
+  </r>
+  <r>
+    <x v="424"/>
+  </r>
+  <r>
+    <x v="425"/>
+  </r>
+  <r>
+    <x v="426"/>
+  </r>
+  <r>
+    <x v="427"/>
+  </r>
+  <r>
+    <x v="428"/>
+  </r>
+  <r>
+    <x v="429"/>
+  </r>
+  <r>
+    <x v="430"/>
+  </r>
+  <r>
+    <x v="431"/>
+  </r>
+  <r>
+    <x v="432"/>
+  </r>
+  <r>
+    <x v="433"/>
+  </r>
+  <r>
+    <x v="434"/>
+  </r>
+  <r>
+    <x v="435"/>
+  </r>
+  <r>
+    <x v="436"/>
+  </r>
+  <r>
+    <x v="437"/>
+  </r>
+  <r>
+    <x v="438"/>
+  </r>
+  <r>
+    <x v="439"/>
+  </r>
+  <r>
+    <x v="440"/>
+  </r>
+  <r>
+    <x v="441"/>
+  </r>
+  <r>
+    <x v="442"/>
+  </r>
+  <r>
+    <x v="443"/>
+  </r>
+  <r>
+    <x v="444"/>
+  </r>
+  <r>
+    <x v="445"/>
+  </r>
+  <r>
+    <x v="446"/>
+  </r>
+  <r>
+    <x v="447"/>
+  </r>
+  <r>
+    <x v="448"/>
+  </r>
+  <r>
+    <x v="449"/>
+  </r>
+  <r>
+    <x v="450"/>
+  </r>
+  <r>
+    <x v="451"/>
+  </r>
+  <r>
+    <x v="452"/>
+  </r>
+  <r>
+    <x v="453"/>
+  </r>
+  <r>
+    <x v="454"/>
+  </r>
+  <r>
+    <x v="455"/>
+  </r>
+  <r>
+    <x v="456"/>
+  </r>
+  <r>
+    <x v="457"/>
+  </r>
+  <r>
+    <x v="458"/>
+  </r>
+  <r>
+    <x v="459"/>
+  </r>
+  <r>
+    <x v="460"/>
+  </r>
+  <r>
+    <x v="461"/>
+  </r>
+  <r>
+    <x v="462"/>
+  </r>
+  <r>
+    <x v="463"/>
+  </r>
+  <r>
+    <x v="464"/>
+  </r>
+  <r>
+    <x v="465"/>
+  </r>
+  <r>
+    <x v="466"/>
+  </r>
+  <r>
+    <x v="467"/>
+  </r>
+  <r>
+    <x v="468"/>
+  </r>
+  <r>
+    <x v="469"/>
+  </r>
+  <r>
+    <x v="470"/>
+  </r>
+  <r>
+    <x v="471"/>
+  </r>
+  <r>
+    <x v="472"/>
+  </r>
+  <r>
+    <x v="473"/>
+  </r>
+  <r>
+    <x v="474"/>
+  </r>
+  <r>
+    <x v="475"/>
+  </r>
+  <r>
+    <x v="476"/>
+  </r>
+  <r>
+    <x v="477"/>
+  </r>
+  <r>
+    <x v="478"/>
+  </r>
+  <r>
+    <x v="479"/>
+  </r>
+  <r>
+    <x v="480"/>
+  </r>
+  <r>
+    <x v="481"/>
+  </r>
+  <r>
+    <x v="482"/>
+  </r>
+  <r>
+    <x v="483"/>
+  </r>
+  <r>
+    <x v="484"/>
+  </r>
+  <r>
+    <x v="485"/>
+  </r>
+  <r>
+    <x v="486"/>
+  </r>
+  <r>
+    <x v="487"/>
+  </r>
+  <r>
+    <x v="488"/>
+  </r>
+  <r>
+    <x v="489"/>
+  </r>
+  <r>
+    <x v="490"/>
+  </r>
+  <r>
+    <x v="491"/>
+  </r>
+  <r>
+    <x v="492"/>
+  </r>
+  <r>
+    <x v="493"/>
+  </r>
+  <r>
+    <x v="494"/>
+  </r>
+  <r>
+    <x v="495"/>
+  </r>
+  <r>
+    <x v="496"/>
+  </r>
+  <r>
+    <x v="497"/>
+  </r>
+  <r>
+    <x v="498"/>
+  </r>
+  <r>
+    <x v="499"/>
+  </r>
+  <r>
+    <x v="500"/>
+  </r>
+  <r>
+    <x v="501"/>
+  </r>
+  <r>
+    <x v="502"/>
+  </r>
+  <r>
+    <x v="503"/>
+  </r>
+  <r>
+    <x v="504"/>
+  </r>
+  <r>
+    <x v="505"/>
+  </r>
+  <r>
+    <x v="506"/>
+  </r>
+  <r>
+    <x v="507"/>
+  </r>
+  <r>
+    <x v="508"/>
+  </r>
+  <r>
+    <x v="509"/>
+  </r>
+  <r>
+    <x v="510"/>
+  </r>
+  <r>
+    <x v="511"/>
+  </r>
+  <r>
+    <x v="512"/>
+  </r>
+  <r>
+    <x v="513"/>
+  </r>
+  <r>
+    <x v="514"/>
+  </r>
+  <r>
+    <x v="515"/>
+  </r>
+  <r>
+    <x v="516"/>
+  </r>
+  <r>
+    <x v="517"/>
+  </r>
+  <r>
+    <x v="518"/>
+  </r>
+  <r>
+    <x v="519"/>
+  </r>
+  <r>
+    <x v="520"/>
+  </r>
+  <r>
+    <x v="521"/>
+  </r>
+  <r>
+    <x v="522"/>
+  </r>
+  <r>
+    <x v="523"/>
+  </r>
+  <r>
+    <x v="524"/>
+  </r>
+  <r>
+    <x v="525"/>
+  </r>
+  <r>
+    <x v="526"/>
+  </r>
+  <r>
+    <x v="527"/>
+  </r>
+  <r>
+    <x v="528"/>
+  </r>
+  <r>
+    <x v="529"/>
+  </r>
+  <r>
+    <x v="530"/>
+  </r>
+  <r>
+    <x v="531"/>
+  </r>
+  <r>
+    <x v="532"/>
+  </r>
+  <r>
+    <x v="533"/>
+  </r>
+  <r>
+    <x v="534"/>
+  </r>
+  <r>
+    <x v="535"/>
+  </r>
+  <r>
+    <x v="536"/>
+  </r>
+  <r>
+    <x v="537"/>
+  </r>
+  <r>
+    <x v="538"/>
+  </r>
+  <r>
+    <x v="539"/>
+  </r>
+  <r>
+    <x v="540"/>
+  </r>
+  <r>
+    <x v="541"/>
+  </r>
+  <r>
+    <x v="542"/>
+  </r>
+  <r>
+    <x v="543"/>
+  </r>
+  <r>
+    <x v="544"/>
+  </r>
+  <r>
+    <x v="545"/>
+  </r>
+  <r>
+    <x v="546"/>
+  </r>
+  <r>
+    <x v="547"/>
+  </r>
+  <r>
+    <x v="548"/>
+  </r>
+  <r>
+    <x v="549"/>
+  </r>
+  <r>
+    <x v="550"/>
+  </r>
+  <r>
+    <x v="551"/>
+  </r>
+  <r>
+    <x v="552"/>
+  </r>
+  <r>
+    <x v="553"/>
+  </r>
+  <r>
+    <x v="554"/>
+  </r>
+  <r>
+    <x v="555"/>
+  </r>
+  <r>
+    <x v="556"/>
+  </r>
+  <r>
+    <x v="557"/>
+  </r>
+  <r>
+    <x v="558"/>
+  </r>
+  <r>
+    <x v="559"/>
+  </r>
+  <r>
+    <x v="560"/>
+  </r>
+  <r>
+    <x v="561"/>
+  </r>
+  <r>
+    <x v="562"/>
+  </r>
+  <r>
+    <x v="563"/>
+  </r>
+  <r>
+    <x v="564"/>
+  </r>
+  <r>
+    <x v="565"/>
+  </r>
+  <r>
+    <x v="566"/>
+  </r>
+  <r>
+    <x v="567"/>
+  </r>
+  <r>
+    <x v="568"/>
+  </r>
+  <r>
+    <x v="569"/>
+  </r>
+  <r>
+    <x v="570"/>
+  </r>
+  <r>
+    <x v="571"/>
+  </r>
+  <r>
+    <x v="572"/>
+  </r>
+  <r>
+    <x v="573"/>
+  </r>
+  <r>
+    <x v="574"/>
+  </r>
+  <r>
+    <x v="575"/>
+  </r>
+  <r>
+    <x v="576"/>
+  </r>
+  <r>
+    <x v="577"/>
+  </r>
+  <r>
+    <x v="578"/>
+  </r>
+  <r>
+    <x v="579"/>
+  </r>
+  <r>
+    <x v="580"/>
+  </r>
+  <r>
+    <x v="581"/>
+  </r>
+  <r>
+    <x v="582"/>
+  </r>
+  <r>
+    <x v="583"/>
+  </r>
+  <r>
+    <x v="584"/>
+  </r>
+  <r>
+    <x v="585"/>
+  </r>
+  <r>
+    <x v="586"/>
+  </r>
+  <r>
+    <x v="587"/>
+  </r>
+  <r>
+    <x v="588"/>
+  </r>
+  <r>
+    <x v="589"/>
+  </r>
+  <r>
+    <x v="590"/>
+  </r>
+  <r>
+    <x v="591"/>
+  </r>
+  <r>
+    <x v="592"/>
+  </r>
+  <r>
+    <x v="593"/>
+  </r>
+  <r>
+    <x v="594"/>
+  </r>
+  <r>
+    <x v="595"/>
+  </r>
+  <r>
+    <x v="596"/>
+  </r>
+  <r>
+    <x v="597"/>
+  </r>
+  <r>
+    <x v="598"/>
+  </r>
+  <r>
+    <x v="599"/>
+  </r>
+  <r>
+    <x v="600"/>
+  </r>
+  <r>
+    <x v="601"/>
+  </r>
+  <r>
+    <x v="602"/>
+  </r>
+  <r>
+    <x v="603"/>
+  </r>
+  <r>
+    <x v="604"/>
+  </r>
+  <r>
+    <x v="605"/>
+  </r>
+  <r>
+    <x v="606"/>
+  </r>
+  <r>
+    <x v="607"/>
+  </r>
+  <r>
+    <x v="608"/>
+  </r>
+  <r>
+    <x v="609"/>
+  </r>
+  <r>
+    <x v="610"/>
+  </r>
+  <r>
+    <x v="611"/>
+  </r>
+  <r>
+    <x v="612"/>
+  </r>
+  <r>
+    <x v="613"/>
+  </r>
+  <r>
+    <x v="614"/>
+  </r>
+  <r>
+    <x v="615"/>
+  </r>
+  <r>
+    <x v="616"/>
+  </r>
+  <r>
+    <x v="617"/>
+  </r>
+  <r>
+    <x v="618"/>
+  </r>
+  <r>
+    <x v="619"/>
+  </r>
+  <r>
+    <x v="620"/>
+  </r>
+  <r>
+    <x v="621"/>
+  </r>
+  <r>
+    <x v="622"/>
+  </r>
+  <r>
+    <x v="623"/>
+  </r>
+  <r>
+    <x v="624"/>
+  </r>
+  <r>
+    <x v="625"/>
+  </r>
+  <r>
+    <x v="626"/>
+  </r>
+  <r>
+    <x v="627"/>
+  </r>
+  <r>
+    <x v="628"/>
+  </r>
+  <r>
+    <x v="629"/>
+  </r>
+  <r>
+    <x v="630"/>
+  </r>
+  <r>
+    <x v="631"/>
+  </r>
+  <r>
+    <x v="632"/>
+  </r>
+  <r>
+    <x v="633"/>
+  </r>
+  <r>
+    <x v="634"/>
+  </r>
+  <r>
+    <x v="635"/>
+  </r>
+  <r>
+    <x v="636"/>
+  </r>
+  <r>
+    <x v="637"/>
+  </r>
+  <r>
+    <x v="638"/>
+  </r>
+  <r>
+    <x v="639"/>
+  </r>
+  <r>
+    <x v="640"/>
+  </r>
+  <r>
+    <x v="641"/>
+  </r>
+  <r>
+    <x v="642"/>
+  </r>
+  <r>
+    <x v="643"/>
+  </r>
+  <r>
+    <x v="644"/>
+  </r>
+  <r>
+    <x v="645"/>
+  </r>
+  <r>
+    <x v="646"/>
+  </r>
+  <r>
+    <x v="647"/>
+  </r>
+  <r>
+    <x v="648"/>
+  </r>
+  <r>
+    <x v="649"/>
+  </r>
+  <r>
+    <x v="650"/>
+  </r>
+  <r>
+    <x v="651"/>
+  </r>
+  <r>
+    <x v="652"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{773DEB10-5182-4F96-857E-FCFD82D04CBA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F3:F5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="654">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item h="1" x="59"/>
+        <item h="1" x="60"/>
+        <item h="1" x="61"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="64"/>
+        <item h="1" x="65"/>
+        <item h="1" x="66"/>
+        <item h="1" x="67"/>
+        <item h="1" x="68"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="71"/>
+        <item h="1" x="72"/>
+        <item h="1" x="73"/>
+        <item h="1" x="74"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="78"/>
+        <item h="1" x="79"/>
+        <item h="1" x="80"/>
+        <item h="1" x="81"/>
+        <item h="1" x="82"/>
+        <item h="1" x="83"/>
+        <item h="1" x="84"/>
+        <item h="1" x="85"/>
+        <item h="1" x="86"/>
+        <item h="1" x="87"/>
+        <item h="1" x="88"/>
+        <item h="1" x="89"/>
+        <item h="1" x="90"/>
+        <item h="1" x="91"/>
+        <item h="1" x="92"/>
+        <item h="1" x="93"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item h="1" x="96"/>
+        <item h="1" x="97"/>
+        <item h="1" x="98"/>
+        <item h="1" x="99"/>
+        <item h="1" x="100"/>
+        <item h="1" x="101"/>
+        <item h="1" x="102"/>
+        <item h="1" x="103"/>
+        <item h="1" x="104"/>
+        <item h="1" x="105"/>
+        <item h="1" x="106"/>
+        <item h="1" x="107"/>
+        <item h="1" x="108"/>
+        <item h="1" x="109"/>
+        <item h="1" x="110"/>
+        <item h="1" x="111"/>
+        <item h="1" x="112"/>
+        <item h="1" x="113"/>
+        <item h="1" x="114"/>
+        <item h="1" x="115"/>
+        <item h="1" x="116"/>
+        <item h="1" x="117"/>
+        <item h="1" x="118"/>
+        <item h="1" x="119"/>
+        <item h="1" x="120"/>
+        <item h="1" x="121"/>
+        <item h="1" x="122"/>
+        <item h="1" x="123"/>
+        <item h="1" x="124"/>
+        <item h="1" x="125"/>
+        <item h="1" x="126"/>
+        <item h="1" x="127"/>
+        <item h="1" x="128"/>
+        <item h="1" x="129"/>
+        <item h="1" x="130"/>
+        <item h="1" x="131"/>
+        <item h="1" x="132"/>
+        <item h="1" x="133"/>
+        <item h="1" x="134"/>
+        <item h="1" x="135"/>
+        <item h="1" x="136"/>
+        <item h="1" x="137"/>
+        <item h="1" x="138"/>
+        <item h="1" x="139"/>
+        <item h="1" x="140"/>
+        <item h="1" x="141"/>
+        <item h="1" x="142"/>
+        <item h="1" x="143"/>
+        <item h="1" x="144"/>
+        <item h="1" x="145"/>
+        <item h="1" x="146"/>
+        <item h="1" x="147"/>
+        <item h="1" x="148"/>
+        <item h="1" x="149"/>
+        <item h="1" x="150"/>
+        <item h="1" x="151"/>
+        <item h="1" x="152"/>
+        <item h="1" x="153"/>
+        <item h="1" x="154"/>
+        <item h="1" x="155"/>
+        <item h="1" x="156"/>
+        <item h="1" x="157"/>
+        <item h="1" x="158"/>
+        <item h="1" x="159"/>
+        <item h="1" x="160"/>
+        <item h="1" x="161"/>
+        <item h="1" x="162"/>
+        <item h="1" x="163"/>
+        <item h="1" x="164"/>
+        <item h="1" x="165"/>
+        <item h="1" x="166"/>
+        <item h="1" x="167"/>
+        <item h="1" x="168"/>
+        <item h="1" x="169"/>
+        <item h="1" x="170"/>
+        <item h="1" x="171"/>
+        <item h="1" x="172"/>
+        <item h="1" x="173"/>
+        <item h="1" x="174"/>
+        <item h="1" x="175"/>
+        <item h="1" x="176"/>
+        <item h="1" x="177"/>
+        <item h="1" x="178"/>
+        <item h="1" x="179"/>
+        <item h="1" x="180"/>
+        <item h="1" x="181"/>
+        <item h="1" x="182"/>
+        <item h="1" x="183"/>
+        <item h="1" x="184"/>
+        <item h="1" x="185"/>
+        <item h="1" x="186"/>
+        <item h="1" x="187"/>
+        <item h="1" x="188"/>
+        <item h="1" x="189"/>
+        <item h="1" x="190"/>
+        <item h="1" x="191"/>
+        <item h="1" x="192"/>
+        <item h="1" x="193"/>
+        <item h="1" x="194"/>
+        <item h="1" x="195"/>
+        <item h="1" x="196"/>
+        <item h="1" x="197"/>
+        <item h="1" x="198"/>
+        <item h="1" x="199"/>
+        <item h="1" x="200"/>
+        <item h="1" x="201"/>
+        <item h="1" x="202"/>
+        <item h="1" x="203"/>
+        <item h="1" x="204"/>
+        <item h="1" x="205"/>
+        <item h="1" x="206"/>
+        <item h="1" x="207"/>
+        <item h="1" x="208"/>
+        <item h="1" x="209"/>
+        <item h="1" x="210"/>
+        <item h="1" x="211"/>
+        <item h="1" x="212"/>
+        <item h="1" x="213"/>
+        <item h="1" x="214"/>
+        <item h="1" x="215"/>
+        <item h="1" x="216"/>
+        <item h="1" x="217"/>
+        <item h="1" x="218"/>
+        <item h="1" x="219"/>
+        <item h="1" x="220"/>
+        <item h="1" x="221"/>
+        <item h="1" x="222"/>
+        <item h="1" x="223"/>
+        <item h="1" x="224"/>
+        <item h="1" x="225"/>
+        <item h="1" x="226"/>
+        <item h="1" x="227"/>
+        <item h="1" x="228"/>
+        <item h="1" x="229"/>
+        <item h="1" x="230"/>
+        <item h="1" x="231"/>
+        <item h="1" x="232"/>
+        <item h="1" x="233"/>
+        <item h="1" x="234"/>
+        <item h="1" x="235"/>
+        <item h="1" x="236"/>
+        <item h="1" x="237"/>
+        <item h="1" x="238"/>
+        <item h="1" x="239"/>
+        <item h="1" x="240"/>
+        <item h="1" x="241"/>
+        <item h="1" x="242"/>
+        <item h="1" x="243"/>
+        <item h="1" x="244"/>
+        <item h="1" x="245"/>
+        <item h="1" x="246"/>
+        <item h="1" x="247"/>
+        <item h="1" x="248"/>
+        <item h="1" x="249"/>
+        <item h="1" x="250"/>
+        <item h="1" x="251"/>
+        <item h="1" x="252"/>
+        <item h="1" x="253"/>
+        <item h="1" x="254"/>
+        <item h="1" x="255"/>
+        <item h="1" x="256"/>
+        <item h="1" x="257"/>
+        <item h="1" x="258"/>
+        <item h="1" x="259"/>
+        <item h="1" x="260"/>
+        <item h="1" x="261"/>
+        <item h="1" x="262"/>
+        <item h="1" x="263"/>
+        <item h="1" x="264"/>
+        <item h="1" x="265"/>
+        <item h="1" x="266"/>
+        <item h="1" x="267"/>
+        <item h="1" x="268"/>
+        <item h="1" x="269"/>
+        <item h="1" x="270"/>
+        <item h="1" x="271"/>
+        <item h="1" x="272"/>
+        <item h="1" x="273"/>
+        <item h="1" x="274"/>
+        <item h="1" x="275"/>
+        <item h="1" x="276"/>
+        <item h="1" x="277"/>
+        <item h="1" x="278"/>
+        <item h="1" x="279"/>
+        <item h="1" x="280"/>
+        <item h="1" x="281"/>
+        <item h="1" x="282"/>
+        <item h="1" x="283"/>
+        <item h="1" x="284"/>
+        <item h="1" x="285"/>
+        <item h="1" x="286"/>
+        <item h="1" x="287"/>
+        <item h="1" x="288"/>
+        <item h="1" x="289"/>
+        <item h="1" x="290"/>
+        <item h="1" x="291"/>
+        <item h="1" x="292"/>
+        <item h="1" x="293"/>
+        <item h="1" x="294"/>
+        <item h="1" x="295"/>
+        <item h="1" x="296"/>
+        <item h="1" x="297"/>
+        <item h="1" x="298"/>
+        <item h="1" x="299"/>
+        <item h="1" x="300"/>
+        <item h="1" x="301"/>
+        <item h="1" x="302"/>
+        <item h="1" x="303"/>
+        <item h="1" x="304"/>
+        <item h="1" x="305"/>
+        <item h="1" x="306"/>
+        <item h="1" x="307"/>
+        <item h="1" x="308"/>
+        <item h="1" x="309"/>
+        <item h="1" x="310"/>
+        <item h="1" x="311"/>
+        <item h="1" x="312"/>
+        <item h="1" x="313"/>
+        <item h="1" x="314"/>
+        <item h="1" x="315"/>
+        <item h="1" x="316"/>
+        <item h="1" x="317"/>
+        <item h="1" x="318"/>
+        <item h="1" x="319"/>
+        <item h="1" x="320"/>
+        <item h="1" x="321"/>
+        <item h="1" x="322"/>
+        <item h="1" x="323"/>
+        <item h="1" x="324"/>
+        <item h="1" x="325"/>
+        <item h="1" x="326"/>
+        <item h="1" x="327"/>
+        <item h="1" x="328"/>
+        <item h="1" x="329"/>
+        <item h="1" x="330"/>
+        <item h="1" x="331"/>
+        <item h="1" x="332"/>
+        <item h="1" x="333"/>
+        <item h="1" x="334"/>
+        <item h="1" x="335"/>
+        <item h="1" x="336"/>
+        <item h="1" x="337"/>
+        <item h="1" x="338"/>
+        <item h="1" x="339"/>
+        <item h="1" x="340"/>
+        <item h="1" x="341"/>
+        <item h="1" x="342"/>
+        <item h="1" x="343"/>
+        <item h="1" x="344"/>
+        <item h="1" x="345"/>
+        <item h="1" x="346"/>
+        <item h="1" x="347"/>
+        <item h="1" x="348"/>
+        <item h="1" x="349"/>
+        <item h="1" x="350"/>
+        <item h="1" x="351"/>
+        <item h="1" x="352"/>
+        <item h="1" x="353"/>
+        <item h="1" x="354"/>
+        <item h="1" x="355"/>
+        <item h="1" x="356"/>
+        <item h="1" x="357"/>
+        <item h="1" x="358"/>
+        <item h="1" x="359"/>
+        <item h="1" x="360"/>
+        <item h="1" x="361"/>
+        <item h="1" x="362"/>
+        <item h="1" x="363"/>
+        <item h="1" x="364"/>
+        <item h="1" x="365"/>
+        <item h="1" x="366"/>
+        <item h="1" x="367"/>
+        <item h="1" x="368"/>
+        <item h="1" x="369"/>
+        <item h="1" x="370"/>
+        <item h="1" x="371"/>
+        <item h="1" x="372"/>
+        <item h="1" x="373"/>
+        <item h="1" x="374"/>
+        <item h="1" x="375"/>
+        <item h="1" x="376"/>
+        <item h="1" x="377"/>
+        <item h="1" x="378"/>
+        <item h="1" x="379"/>
+        <item h="1" x="380"/>
+        <item h="1" x="381"/>
+        <item h="1" x="382"/>
+        <item h="1" x="383"/>
+        <item h="1" x="384"/>
+        <item h="1" x="385"/>
+        <item h="1" x="386"/>
+        <item h="1" x="387"/>
+        <item h="1" x="388"/>
+        <item h="1" x="389"/>
+        <item h="1" x="390"/>
+        <item h="1" x="391"/>
+        <item h="1" x="392"/>
+        <item h="1" x="393"/>
+        <item h="1" x="394"/>
+        <item h="1" x="395"/>
+        <item h="1" x="396"/>
+        <item h="1" x="397"/>
+        <item h="1" x="398"/>
+        <item h="1" x="399"/>
+        <item h="1" x="400"/>
+        <item h="1" x="401"/>
+        <item h="1" x="402"/>
+        <item h="1" x="403"/>
+        <item h="1" x="404"/>
+        <item h="1" x="405"/>
+        <item h="1" x="406"/>
+        <item h="1" x="407"/>
+        <item h="1" x="408"/>
+        <item h="1" x="409"/>
+        <item h="1" x="410"/>
+        <item h="1" x="411"/>
+        <item h="1" x="412"/>
+        <item h="1" x="413"/>
+        <item h="1" x="414"/>
+        <item h="1" x="415"/>
+        <item h="1" x="416"/>
+        <item h="1" x="417"/>
+        <item h="1" x="418"/>
+        <item h="1" x="419"/>
+        <item h="1" x="420"/>
+        <item h="1" x="421"/>
+        <item h="1" x="422"/>
+        <item h="1" x="423"/>
+        <item h="1" x="424"/>
+        <item h="1" x="425"/>
+        <item h="1" x="426"/>
+        <item h="1" x="427"/>
+        <item h="1" x="428"/>
+        <item h="1" x="429"/>
+        <item h="1" x="430"/>
+        <item h="1" x="431"/>
+        <item h="1" x="432"/>
+        <item h="1" x="433"/>
+        <item h="1" x="434"/>
+        <item h="1" x="435"/>
+        <item h="1" x="436"/>
+        <item h="1" x="437"/>
+        <item h="1" x="438"/>
+        <item h="1" x="439"/>
+        <item h="1" x="440"/>
+        <item h="1" x="441"/>
+        <item h="1" x="442"/>
+        <item h="1" x="443"/>
+        <item h="1" x="444"/>
+        <item h="1" x="445"/>
+        <item h="1" x="446"/>
+        <item h="1" x="447"/>
+        <item h="1" x="448"/>
+        <item h="1" x="449"/>
+        <item h="1" x="450"/>
+        <item h="1" x="451"/>
+        <item h="1" x="452"/>
+        <item h="1" x="453"/>
+        <item h="1" x="454"/>
+        <item h="1" x="455"/>
+        <item h="1" x="456"/>
+        <item h="1" x="457"/>
+        <item h="1" x="458"/>
+        <item h="1" x="459"/>
+        <item h="1" x="460"/>
+        <item h="1" x="461"/>
+        <item h="1" x="462"/>
+        <item h="1" x="463"/>
+        <item h="1" x="464"/>
+        <item h="1" x="465"/>
+        <item h="1" x="466"/>
+        <item h="1" x="467"/>
+        <item h="1" x="468"/>
+        <item h="1" x="469"/>
+        <item h="1" x="470"/>
+        <item h="1" x="471"/>
+        <item h="1" x="472"/>
+        <item h="1" x="473"/>
+        <item h="1" x="474"/>
+        <item h="1" x="475"/>
+        <item h="1" x="476"/>
+        <item h="1" x="477"/>
+        <item h="1" x="478"/>
+        <item h="1" x="479"/>
+        <item h="1" x="480"/>
+        <item h="1" x="481"/>
+        <item h="1" x="482"/>
+        <item h="1" x="483"/>
+        <item h="1" x="484"/>
+        <item h="1" x="485"/>
+        <item h="1" x="486"/>
+        <item h="1" x="487"/>
+        <item h="1" x="488"/>
+        <item h="1" x="489"/>
+        <item h="1" x="490"/>
+        <item h="1" x="491"/>
+        <item h="1" x="492"/>
+        <item h="1" x="493"/>
+        <item h="1" x="494"/>
+        <item h="1" x="495"/>
+        <item h="1" x="496"/>
+        <item h="1" x="497"/>
+        <item h="1" x="498"/>
+        <item h="1" x="499"/>
+        <item h="1" x="500"/>
+        <item h="1" x="501"/>
+        <item h="1" x="502"/>
+        <item h="1" x="503"/>
+        <item h="1" x="504"/>
+        <item h="1" x="505"/>
+        <item h="1" x="506"/>
+        <item h="1" x="507"/>
+        <item h="1" x="508"/>
+        <item h="1" x="509"/>
+        <item h="1" x="510"/>
+        <item h="1" x="511"/>
+        <item h="1" x="512"/>
+        <item h="1" x="513"/>
+        <item h="1" x="514"/>
+        <item h="1" x="515"/>
+        <item h="1" x="516"/>
+        <item h="1" x="517"/>
+        <item h="1" x="518"/>
+        <item h="1" x="519"/>
+        <item h="1" x="520"/>
+        <item h="1" x="521"/>
+        <item h="1" x="522"/>
+        <item h="1" x="523"/>
+        <item h="1" x="524"/>
+        <item h="1" x="525"/>
+        <item h="1" x="526"/>
+        <item h="1" x="527"/>
+        <item h="1" x="528"/>
+        <item h="1" x="529"/>
+        <item h="1" x="530"/>
+        <item h="1" x="531"/>
+        <item h="1" x="532"/>
+        <item h="1" x="533"/>
+        <item h="1" x="534"/>
+        <item h="1" x="535"/>
+        <item h="1" x="536"/>
+        <item h="1" x="537"/>
+        <item h="1" x="538"/>
+        <item h="1" x="539"/>
+        <item h="1" x="540"/>
+        <item h="1" x="541"/>
+        <item h="1" x="542"/>
+        <item h="1" x="543"/>
+        <item h="1" x="544"/>
+        <item h="1" x="545"/>
+        <item h="1" x="546"/>
+        <item h="1" x="547"/>
+        <item h="1" x="548"/>
+        <item h="1" x="549"/>
+        <item h="1" x="550"/>
+        <item h="1" x="551"/>
+        <item h="1" x="552"/>
+        <item h="1" x="553"/>
+        <item h="1" x="554"/>
+        <item h="1" x="555"/>
+        <item h="1" x="556"/>
+        <item h="1" x="557"/>
+        <item h="1" x="558"/>
+        <item h="1" x="559"/>
+        <item h="1" x="560"/>
+        <item h="1" x="561"/>
+        <item h="1" x="562"/>
+        <item h="1" x="563"/>
+        <item h="1" x="564"/>
+        <item h="1" x="565"/>
+        <item h="1" x="566"/>
+        <item h="1" x="567"/>
+        <item h="1" x="568"/>
+        <item h="1" x="569"/>
+        <item h="1" x="570"/>
+        <item h="1" x="571"/>
+        <item h="1" x="572"/>
+        <item h="1" x="573"/>
+        <item h="1" x="574"/>
+        <item h="1" x="575"/>
+        <item h="1" x="576"/>
+        <item h="1" x="577"/>
+        <item h="1" x="578"/>
+        <item h="1" x="579"/>
+        <item h="1" x="580"/>
+        <item h="1" x="581"/>
+        <item h="1" x="582"/>
+        <item h="1" x="583"/>
+        <item h="1" x="584"/>
+        <item h="1" x="585"/>
+        <item h="1" x="586"/>
+        <item h="1" x="587"/>
+        <item h="1" x="588"/>
+        <item h="1" x="589"/>
+        <item h="1" x="590"/>
+        <item h="1" x="591"/>
+        <item h="1" x="592"/>
+        <item h="1" x="593"/>
+        <item h="1" x="594"/>
+        <item h="1" x="595"/>
+        <item h="1" x="596"/>
+        <item h="1" x="597"/>
+        <item h="1" x="598"/>
+        <item h="1" x="599"/>
+        <item h="1" x="600"/>
+        <item h="1" x="601"/>
+        <item h="1" x="602"/>
+        <item h="1" x="603"/>
+        <item h="1" x="604"/>
+        <item h="1" x="605"/>
+        <item h="1" x="606"/>
+        <item h="1" x="607"/>
+        <item h="1" x="608"/>
+        <item h="1" x="609"/>
+        <item h="1" x="610"/>
+        <item h="1" x="611"/>
+        <item h="1" x="612"/>
+        <item h="1" x="613"/>
+        <item h="1" x="614"/>
+        <item h="1" x="615"/>
+        <item h="1" x="616"/>
+        <item h="1" x="617"/>
+        <item h="1" x="618"/>
+        <item h="1" x="619"/>
+        <item h="1" x="620"/>
+        <item x="621"/>
+        <item h="1" x="622"/>
+        <item h="1" x="623"/>
+        <item h="1" x="624"/>
+        <item h="1" x="625"/>
+        <item h="1" x="626"/>
+        <item h="1" x="627"/>
+        <item h="1" x="628"/>
+        <item h="1" x="629"/>
+        <item h="1" x="630"/>
+        <item h="1" x="631"/>
+        <item h="1" x="632"/>
+        <item h="1" x="633"/>
+        <item h="1" x="634"/>
+        <item h="1" x="635"/>
+        <item h="1" x="636"/>
+        <item h="1" x="637"/>
+        <item h="1" x="638"/>
+        <item h="1" x="639"/>
+        <item h="1" x="640"/>
+        <item h="1" x="641"/>
+        <item h="1" x="642"/>
+        <item h="1" x="643"/>
+        <item h="1" x="644"/>
+        <item h="1" x="645"/>
+        <item h="1" x="646"/>
+        <item h="1" x="647"/>
+        <item h="1" x="648"/>
+        <item h="1" x="649"/>
+        <item h="1" x="650"/>
+        <item h="1" x="651"/>
+        <item h="1" x="652"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="621"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2311,7 +5649,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,57 +5661,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>645</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -2395,90 +5733,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A477FB-C83C-43C2-86B9-1AF096004820}">
-  <dimension ref="A1:A654"/>
+  <dimension ref="A1:H654"/>
   <sheetViews>
-    <sheetView topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/input/team2.xlsx
+++ b/input/team2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu Kumar\Documents\IPL\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC899E5B-536E-4AFB-9482-B6D266FED069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643510C4-F78B-44C9-8F72-4DBB39FDA8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4813,7 +4813,7 @@
         <item h="1" x="110"/>
         <item h="1" x="111"/>
         <item h="1" x="112"/>
-        <item h="1" x="113"/>
+        <item x="113"/>
         <item h="1" x="114"/>
         <item h="1" x="115"/>
         <item h="1" x="116"/>
@@ -5321,7 +5321,7 @@
         <item h="1" x="618"/>
         <item h="1" x="619"/>
         <item h="1" x="620"/>
-        <item x="621"/>
+        <item h="1" x="621"/>
         <item h="1" x="622"/>
         <item h="1" x="623"/>
         <item h="1" x="624"/>
@@ -5362,7 +5362,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="621"/>
+      <x v="113"/>
     </i>
     <i t="grand">
       <x/>
@@ -5649,7 +5649,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5661,57 +5661,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>567</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>617</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>561</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>622</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5767,10 +5767,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="H4" t="s">
-        <v>627</v>
+        <v>114</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -5780,80 +5780,80 @@
       <c r="F5" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="H5" t="s">
-        <v>386</v>
+      <c r="H5" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>388</v>
+      <c r="H6" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>341</v>
+      <c r="H7" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>477</v>
+      <c r="H8" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>42</v>
+      <c r="H9" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>567</v>
+      <c r="H10" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>617</v>
+      <c r="H11" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
-        <v>561</v>
+      <c r="H12" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
-        <v>133</v>
+      <c r="H13" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
-        <v>622</v>
+      <c r="H14" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
